--- a/DMA Mapping.xlsx
+++ b/DMA Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evansmith/Documents/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evansmith/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016308B0-B5E2-EA41-B185-8C6A3B76CC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A6B23E-DCE9-6C41-AABB-DD25B29B3EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="23260" windowHeight="12580" xr2:uid="{3CEFC707-8AD5-4FAC-A1D5-6E794827AAF8}"/>
   </bookViews>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6072" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6004" uniqueCount="995">
   <si>
     <t>DMA</t>
   </si>
@@ -2605,171 +2603,72 @@
     <t>Abilene/Sweetwater</t>
   </si>
   <si>
-    <t>Austin - Audi North Austin</t>
-  </si>
-  <si>
     <t>Albany/Schenectady/Troy</t>
   </si>
   <si>
-    <t>Boston - Audi Peabody</t>
-  </si>
-  <si>
     <t>Albany-Ga</t>
   </si>
   <si>
-    <t>Charlotte - Audi Charlotte</t>
-  </si>
-  <si>
     <t>Albuquerque/Santa Fe</t>
   </si>
   <si>
-    <t>Highland Park - Audi Exchange</t>
-  </si>
-  <si>
     <t>Alexandria-La</t>
   </si>
   <si>
-    <t>Dallas - Audi Dallas/Dallas Love Field</t>
-  </si>
-  <si>
-    <t>Dallas - Audi Grapevine</t>
-  </si>
-  <si>
-    <t>Dallas - Audi Plano</t>
-  </si>
-  <si>
-    <t>Broomfield - Audi Flatirons</t>
-  </si>
-  <si>
-    <t>Denver - Audi Flatirons</t>
-  </si>
-  <si>
     <t>Augusta</t>
   </si>
   <si>
-    <t>Littleton - Audi Denver</t>
-  </si>
-  <si>
     <t>Austin-Tx</t>
   </si>
   <si>
-    <t>Houston - Audi Central Houston</t>
-  </si>
-  <si>
-    <t>Houston - Audi West Houston</t>
-  </si>
-  <si>
-    <t>Las Vegas - Audi Henderson</t>
-  </si>
-  <si>
-    <t>Ontario - Audi Ontario</t>
-  </si>
-  <si>
-    <t>Orange County - Audi Fletcher Jones</t>
-  </si>
-  <si>
     <t>Beaumont/Port Arthur</t>
   </si>
   <si>
-    <t>Orange County - Audi South Coast</t>
-  </si>
-  <si>
     <t>Bend-Or</t>
   </si>
   <si>
-    <t>Fort Lauderdale - Audi Coral Springs</t>
-  </si>
-  <si>
     <t>Billings MT</t>
   </si>
   <si>
-    <t>Fort Lauderdale - Audi Fort Lauderdale</t>
-  </si>
-  <si>
     <t>Biloxi/Gulfport</t>
   </si>
   <si>
-    <t>Miami - Audi North Miami</t>
-  </si>
-  <si>
-    <t>NYC - Audi Brooklyn</t>
-  </si>
-  <si>
     <t>Birmingham AL</t>
   </si>
   <si>
     <t>Birmingham</t>
   </si>
   <si>
-    <t>NYC - Brooklyn Downtown</t>
-  </si>
-  <si>
     <t>Bluefield/Beckley/Oak Hill</t>
   </si>
   <si>
-    <t>NYC - Columbus Circle</t>
-  </si>
-  <si>
-    <t>Parsippany - Paul Miller Audi</t>
-  </si>
-  <si>
     <t>Boston</t>
   </si>
   <si>
-    <t>Phoenix - Audi Gilbert</t>
-  </si>
-  <si>
-    <t>Burlingame - Audi Burlingame</t>
-  </si>
-  <si>
-    <t>Fremont - Audi Fremont</t>
-  </si>
-  <si>
     <t>Burlington/Plattsburgh</t>
   </si>
   <si>
-    <t>San Jose - Audi Stevens Creek</t>
-  </si>
-  <si>
     <t>Butte/Bozeman</t>
   </si>
   <si>
-    <t>Seattle - Audi Seattle</t>
-  </si>
-  <si>
     <t>Casper/Riverton</t>
   </si>
   <si>
-    <t>Seattle - Audi Tacoma</t>
-  </si>
-  <si>
     <t>Cedar Rapids/Waterloo/Dubuque</t>
   </si>
   <si>
-    <t>Tampa - Audi Lakeland</t>
-  </si>
-  <si>
     <t>Cedar Rapids-Waterloo-Iowa City &amp; Dubuque, IA</t>
   </si>
   <si>
     <t>Champaign/Springfield/Decatur</t>
   </si>
   <si>
-    <t>Tampa - Audi Tampa</t>
-  </si>
-  <si>
     <t>Charleston/Huntington</t>
   </si>
   <si>
-    <t>Tampa - Audi Wesley Chapel</t>
-  </si>
-  <si>
     <t>Charleston-Sc</t>
   </si>
   <si>
-    <t>Washington D.C. - Audi Chantilly</t>
-  </si>
-  <si>
     <t>Cheyenne/Scottsbluff</t>
   </si>
   <si>
@@ -3128,9 +3027,6 @@
   </si>
   <si>
     <t>Datorama (from GA): Metro</t>
-  </si>
-  <si>
-    <t>Reservations: Silvercar Location</t>
   </si>
 </sst>
 </file>
@@ -3506,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA2806C-46C0-4327-B00D-C8591F7E04C0}">
-  <dimension ref="A1:Z230"/>
+  <dimension ref="A1:W230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3531,19 +3427,16 @@
     <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.83203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.83203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.83203125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="54.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3557,7 +3450,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -3585,27 +3478,20 @@
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="1" t="s">
-        <v>1028</v>
+        <v>850</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3643,25 +3529,19 @@
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>853</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="V2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3669,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -3699,25 +3579,19 @@
         <v>8</v>
       </c>
       <c r="S3" t="s">
-        <v>855</v>
+        <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W3" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3725,7 +3599,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -3755,25 +3629,19 @@
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>864</v>
+        <v>13</v>
       </c>
       <c r="T4" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W4" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3781,7 +3649,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3811,25 +3679,19 @@
         <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>891</v>
+        <v>17</v>
       </c>
       <c r="T5" t="s">
-        <v>659</v>
+        <v>15</v>
       </c>
       <c r="V5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +3699,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3867,25 +3729,19 @@
         <v>19</v>
       </c>
       <c r="S6" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="W6" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3923,25 +3779,19 @@
         <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>861</v>
+        <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="V7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W7" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3979,25 +3829,19 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>862</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4035,25 +3879,19 @@
         <v>30</v>
       </c>
       <c r="S9" t="s">
-        <v>863</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4091,25 +3929,19 @@
         <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>865</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -4117,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -4147,25 +3979,19 @@
         <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>877</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>476</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4173,7 +3999,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -4203,25 +4029,19 @@
         <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>879</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>476</v>
+        <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="W12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -4259,25 +4079,19 @@
         <v>46</v>
       </c>
       <c r="S13" t="s">
-        <v>892</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>659</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4315,25 +4129,19 @@
         <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>859</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4371,25 +4179,19 @@
         <v>54</v>
       </c>
       <c r="S15" t="s">
-        <v>869</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -4427,25 +4229,19 @@
         <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>870</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>344</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -4453,7 +4249,7 @@
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
@@ -4483,25 +4279,19 @@
         <v>62</v>
       </c>
       <c r="S17" t="s">
-        <v>871</v>
+        <v>64</v>
       </c>
       <c r="T17" t="s">
-        <v>416</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -4509,7 +4299,7 @@
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
@@ -4539,25 +4329,19 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>867</v>
+        <v>66</v>
       </c>
       <c r="T18" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="V18" t="s">
-        <v>66</v>
+        <v>861</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>878</v>
-      </c>
-      <c r="Z18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -4595,25 +4379,19 @@
         <v>69</v>
       </c>
       <c r="S19" t="s">
-        <v>881</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s">
-        <v>476</v>
+        <v>69</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4621,7 +4399,7 @@
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
@@ -4651,25 +4429,19 @@
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>882</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s">
-        <v>523</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="W20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -4707,25 +4479,19 @@
         <v>76</v>
       </c>
       <c r="S21" t="s">
-        <v>885</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>523</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s">
-        <v>78</v>
+        <v>863</v>
       </c>
       <c r="W21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>883</v>
-      </c>
-      <c r="Z21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -4733,7 +4499,7 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="E22" t="s">
         <v>80</v>
@@ -4763,25 +4529,19 @@
         <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>887</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="W22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -4789,7 +4549,7 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="E23" t="s">
         <v>84</v>
@@ -4819,25 +4579,19 @@
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>872</v>
+        <v>86</v>
       </c>
       <c r="T23" t="s">
-        <v>436</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -4875,25 +4629,19 @@
         <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>873</v>
+        <v>90</v>
       </c>
       <c r="T24" t="s">
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="V24" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="W24" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -4901,7 +4649,7 @@
         <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
@@ -4931,25 +4679,19 @@
         <v>92</v>
       </c>
       <c r="S25" t="s">
-        <v>875</v>
+        <v>94</v>
       </c>
       <c r="T25" t="s">
-        <v>436</v>
+        <v>92</v>
       </c>
       <c r="V25" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="W25" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -4987,25 +4729,19 @@
         <v>96</v>
       </c>
       <c r="S26" t="s">
-        <v>888</v>
+        <v>98</v>
       </c>
       <c r="T26" t="s">
-        <v>523</v>
+        <v>96</v>
       </c>
       <c r="V26" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="W26" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -5043,25 +4779,19 @@
         <v>100</v>
       </c>
       <c r="S27" t="s">
-        <v>890</v>
+        <v>102</v>
       </c>
       <c r="T27" t="s">
-        <v>578</v>
+        <v>100</v>
       </c>
       <c r="V27" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="W27" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -5069,7 +4799,7 @@
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="E28" t="s">
         <v>104</v>
@@ -5099,25 +4829,19 @@
         <v>104</v>
       </c>
       <c r="S28" t="s">
-        <v>894</v>
+        <v>106</v>
       </c>
       <c r="T28" t="s">
-        <v>659</v>
+        <v>104</v>
       </c>
       <c r="V28" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="W28" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -5125,7 +4849,7 @@
         <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -5155,25 +4879,19 @@
         <v>108</v>
       </c>
       <c r="S29" t="s">
-        <v>896</v>
+        <v>110</v>
       </c>
       <c r="T29" t="s">
-        <v>671</v>
+        <v>108</v>
       </c>
       <c r="V29" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="W29" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -5181,7 +4899,7 @@
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="E30" t="s">
         <v>112</v>
@@ -5211,25 +4929,19 @@
         <v>112</v>
       </c>
       <c r="S30" t="s">
-        <v>898</v>
+        <v>114</v>
       </c>
       <c r="T30" t="s">
-        <v>671</v>
+        <v>112</v>
       </c>
       <c r="V30" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="W30" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -5237,7 +4949,7 @@
         <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="E31" t="s">
         <v>116</v>
@@ -5267,25 +4979,19 @@
         <v>116</v>
       </c>
       <c r="S31" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="T31" t="s">
-        <v>722</v>
+        <v>116</v>
       </c>
       <c r="V31" t="s">
-        <v>901</v>
+        <v>122</v>
       </c>
       <c r="W31" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -5293,7 +4999,7 @@
         <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="E32" t="s">
         <v>120</v>
@@ -5323,25 +5029,19 @@
         <v>120</v>
       </c>
       <c r="S32" t="s">
-        <v>903</v>
+        <v>122</v>
       </c>
       <c r="T32" t="s">
-        <v>722</v>
+        <v>120</v>
       </c>
       <c r="V32" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="W32" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -5349,7 +5049,7 @@
         <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="E33" t="s">
         <v>127</v>
@@ -5379,25 +5079,19 @@
         <v>124</v>
       </c>
       <c r="S33" t="s">
-        <v>905</v>
+        <v>124</v>
       </c>
       <c r="T33" t="s">
-        <v>722</v>
+        <v>124</v>
       </c>
       <c r="V33" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="W33" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -5405,7 +5099,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>906</v>
+        <v>874</v>
       </c>
       <c r="E34" t="s">
         <v>124</v>
@@ -5435,25 +5129,19 @@
         <v>127</v>
       </c>
       <c r="S34" t="s">
-        <v>907</v>
+        <v>129</v>
       </c>
       <c r="T34" t="s">
-        <v>776</v>
+        <v>127</v>
       </c>
       <c r="V34" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="W34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -5490,20 +5178,20 @@
       <c r="Q35" t="s">
         <v>131</v>
       </c>
+      <c r="S35" t="s">
+        <v>133</v>
+      </c>
+      <c r="T35" t="s">
+        <v>131</v>
+      </c>
       <c r="V35" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="W35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -5540,20 +5228,20 @@
       <c r="Q36" t="s">
         <v>135</v>
       </c>
+      <c r="S36" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" t="s">
+        <v>135</v>
+      </c>
       <c r="V36" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="W36" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -5590,20 +5278,20 @@
       <c r="Q37" t="s">
         <v>139</v>
       </c>
+      <c r="S37" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" t="s">
+        <v>139</v>
+      </c>
       <c r="V37" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="W37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -5611,7 +5299,7 @@
         <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -5640,20 +5328,20 @@
       <c r="Q38" t="s">
         <v>145</v>
       </c>
+      <c r="S38" t="s">
+        <v>146</v>
+      </c>
+      <c r="T38" t="s">
+        <v>145</v>
+      </c>
       <c r="V38" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="W38" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -5690,20 +5378,20 @@
       <c r="Q39" t="s">
         <v>143</v>
       </c>
+      <c r="S39" t="s">
+        <v>150</v>
+      </c>
+      <c r="T39" t="s">
+        <v>143</v>
+      </c>
       <c r="V39" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="W39" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -5711,7 +5399,7 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="E40" t="s">
         <v>148</v>
@@ -5740,20 +5428,20 @@
       <c r="Q40" t="s">
         <v>148</v>
       </c>
+      <c r="S40" t="s">
+        <v>154</v>
+      </c>
+      <c r="T40" t="s">
+        <v>148</v>
+      </c>
       <c r="V40" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="W40" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -5790,20 +5478,20 @@
       <c r="Q41" t="s">
         <v>152</v>
       </c>
+      <c r="S41" t="s">
+        <v>158</v>
+      </c>
+      <c r="T41" t="s">
+        <v>152</v>
+      </c>
       <c r="V41" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="W41" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -5811,7 +5499,7 @@
         <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
       <c r="E42" t="s">
         <v>156</v>
@@ -5840,20 +5528,20 @@
       <c r="Q42" t="s">
         <v>156</v>
       </c>
+      <c r="S42" t="s">
+        <v>162</v>
+      </c>
+      <c r="T42" t="s">
+        <v>156</v>
+      </c>
       <c r="V42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="W42" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>166</v>
       </c>
@@ -5861,7 +5549,7 @@
         <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="E43" t="s">
         <v>160</v>
@@ -5890,20 +5578,20 @@
       <c r="Q43" t="s">
         <v>160</v>
       </c>
+      <c r="S43" t="s">
+        <v>166</v>
+      </c>
+      <c r="T43" t="s">
+        <v>160</v>
+      </c>
       <c r="V43" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="W43" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -5911,7 +5599,7 @@
         <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
       <c r="E44" t="s">
         <v>164</v>
@@ -5940,20 +5628,20 @@
       <c r="Q44" t="s">
         <v>164</v>
       </c>
+      <c r="S44" t="s">
+        <v>170</v>
+      </c>
+      <c r="T44" t="s">
+        <v>164</v>
+      </c>
       <c r="V44" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="W44" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z44" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -5961,7 +5649,7 @@
         <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="E45" t="s">
         <v>172</v>
@@ -5990,20 +5678,20 @@
       <c r="Q45" t="s">
         <v>168</v>
       </c>
+      <c r="S45" t="s">
+        <v>168</v>
+      </c>
+      <c r="T45" t="s">
+        <v>168</v>
+      </c>
       <c r="V45" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="W45" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z45" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -6011,7 +5699,7 @@
         <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="E46" t="s">
         <v>168</v>
@@ -6040,20 +5728,20 @@
       <c r="Q46" t="s">
         <v>172</v>
       </c>
+      <c r="S46" t="s">
+        <v>177</v>
+      </c>
+      <c r="T46" t="s">
+        <v>172</v>
+      </c>
       <c r="V46" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="W46" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -6061,7 +5749,7 @@
         <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="E47" t="s">
         <v>184</v>
@@ -6090,20 +5778,20 @@
       <c r="Q47" t="s">
         <v>181</v>
       </c>
+      <c r="S47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T47" t="s">
+        <v>175</v>
+      </c>
       <c r="V47" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="W47" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -6111,7 +5799,7 @@
         <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="E48" t="s">
         <v>175</v>
@@ -6140,20 +5828,20 @@
       <c r="Q48" t="s">
         <v>179</v>
       </c>
+      <c r="S48" t="s">
+        <v>179</v>
+      </c>
+      <c r="T48" t="s">
+        <v>179</v>
+      </c>
       <c r="V48" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="W48" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6161,7 +5849,7 @@
         <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="E49" t="s">
         <v>179</v>
@@ -6190,20 +5878,20 @@
       <c r="Q49" t="s">
         <v>184</v>
       </c>
+      <c r="S49" t="s">
+        <v>189</v>
+      </c>
+      <c r="T49" t="s">
+        <v>184</v>
+      </c>
       <c r="V49" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="W49" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -6240,20 +5928,20 @@
       <c r="Q50" t="s">
         <v>187</v>
       </c>
+      <c r="S50" t="s">
+        <v>193</v>
+      </c>
+      <c r="T50" t="s">
+        <v>187</v>
+      </c>
       <c r="V50" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="W50" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z50" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -6261,7 +5949,7 @@
         <v>191</v>
       </c>
       <c r="D51" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="E51" t="s">
         <v>191</v>
@@ -6290,20 +5978,20 @@
       <c r="Q51" t="s">
         <v>191</v>
       </c>
+      <c r="S51" t="s">
+        <v>197</v>
+      </c>
+      <c r="T51" t="s">
+        <v>191</v>
+      </c>
       <c r="V51" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="W51" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -6311,7 +5999,7 @@
         <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="E52" t="s">
         <v>195</v>
@@ -6340,20 +6028,20 @@
       <c r="Q52" t="s">
         <v>195</v>
       </c>
+      <c r="S52" t="s">
+        <v>201</v>
+      </c>
+      <c r="T52" t="s">
+        <v>195</v>
+      </c>
       <c r="V52" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="W52" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z52" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>205</v>
       </c>
@@ -6390,20 +6078,20 @@
       <c r="Q53" t="s">
         <v>199</v>
       </c>
+      <c r="S53" t="s">
+        <v>205</v>
+      </c>
+      <c r="T53" t="s">
+        <v>199</v>
+      </c>
       <c r="V53" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="W53" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>209</v>
       </c>
@@ -6440,20 +6128,20 @@
       <c r="Q54" t="s">
         <v>203</v>
       </c>
+      <c r="S54" t="s">
+        <v>209</v>
+      </c>
+      <c r="T54" t="s">
+        <v>203</v>
+      </c>
       <c r="V54" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="W54" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -6461,7 +6149,7 @@
         <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="E55" t="s">
         <v>207</v>
@@ -6490,20 +6178,20 @@
       <c r="Q55" t="s">
         <v>207</v>
       </c>
+      <c r="S55" t="s">
+        <v>213</v>
+      </c>
+      <c r="T55" t="s">
+        <v>207</v>
+      </c>
       <c r="V55" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="W55" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z55" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -6540,20 +6228,20 @@
       <c r="Q56" t="s">
         <v>211</v>
       </c>
+      <c r="S56" t="s">
+        <v>217</v>
+      </c>
+      <c r="T56" t="s">
+        <v>211</v>
+      </c>
       <c r="V56" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="W56" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z56" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -6590,20 +6278,20 @@
       <c r="Q57" t="s">
         <v>215</v>
       </c>
+      <c r="S57" t="s">
+        <v>222</v>
+      </c>
+      <c r="T57" t="s">
+        <v>215</v>
+      </c>
       <c r="V57" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="W57" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z57" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>220</v>
       </c>
@@ -6611,7 +6299,7 @@
         <v>220</v>
       </c>
       <c r="D58" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="E58" t="s">
         <v>220</v>
@@ -6640,20 +6328,20 @@
       <c r="Q58" t="s">
         <v>220</v>
       </c>
+      <c r="S58" t="s">
+        <v>220</v>
+      </c>
+      <c r="T58" t="s">
+        <v>220</v>
+      </c>
       <c r="V58" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="W58" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z58" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -6661,7 +6349,7 @@
         <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="E59" t="s">
         <v>224</v>
@@ -6690,20 +6378,20 @@
       <c r="Q59" t="s">
         <v>224</v>
       </c>
+      <c r="S59" t="s">
+        <v>229</v>
+      </c>
+      <c r="T59" t="s">
+        <v>224</v>
+      </c>
       <c r="V59" t="s">
-        <v>229</v>
+        <v>890</v>
       </c>
       <c r="W59" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>923</v>
-      </c>
-      <c r="Z59" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>233</v>
       </c>
@@ -6711,7 +6399,7 @@
         <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
       <c r="E60" t="s">
         <v>227</v>
@@ -6740,20 +6428,20 @@
       <c r="Q60" t="s">
         <v>227</v>
       </c>
+      <c r="S60" t="s">
+        <v>233</v>
+      </c>
+      <c r="T60" t="s">
+        <v>227</v>
+      </c>
       <c r="V60" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="W60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z60" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>237</v>
       </c>
@@ -6790,20 +6478,20 @@
       <c r="Q61" t="s">
         <v>231</v>
       </c>
+      <c r="S61" t="s">
+        <v>237</v>
+      </c>
+      <c r="T61" t="s">
+        <v>231</v>
+      </c>
       <c r="V61" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="W61" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z61" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -6840,20 +6528,20 @@
       <c r="Q62" t="s">
         <v>235</v>
       </c>
+      <c r="S62" t="s">
+        <v>241</v>
+      </c>
+      <c r="T62" t="s">
+        <v>235</v>
+      </c>
       <c r="V62" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="W62" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z62" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>245</v>
       </c>
@@ -6890,20 +6578,20 @@
       <c r="Q63" t="s">
         <v>239</v>
       </c>
+      <c r="S63" t="s">
+        <v>245</v>
+      </c>
+      <c r="T63" t="s">
+        <v>239</v>
+      </c>
       <c r="V63" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="W63" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z63" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>249</v>
       </c>
@@ -6940,20 +6628,20 @@
       <c r="Q64" t="s">
         <v>243</v>
       </c>
+      <c r="S64" t="s">
+        <v>249</v>
+      </c>
+      <c r="T64" t="s">
+        <v>243</v>
+      </c>
       <c r="V64" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="W64" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z64" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>253</v>
       </c>
@@ -6990,20 +6678,20 @@
       <c r="Q65" t="s">
         <v>247</v>
       </c>
+      <c r="S65" t="s">
+        <v>253</v>
+      </c>
+      <c r="T65" t="s">
+        <v>247</v>
+      </c>
       <c r="V65" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="W65" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z65" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>257</v>
       </c>
@@ -7011,7 +6699,7 @@
         <v>251</v>
       </c>
       <c r="D66" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="E66" t="s">
         <v>251</v>
@@ -7040,20 +6728,20 @@
       <c r="Q66" t="s">
         <v>251</v>
       </c>
+      <c r="S66" t="s">
+        <v>257</v>
+      </c>
+      <c r="T66" t="s">
+        <v>251</v>
+      </c>
       <c r="V66" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W66" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z66" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -7061,7 +6749,7 @@
         <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
       <c r="E67" t="s">
         <v>255</v>
@@ -7090,20 +6778,20 @@
       <c r="Q67" t="s">
         <v>255</v>
       </c>
+      <c r="S67" t="s">
+        <v>261</v>
+      </c>
+      <c r="T67" t="s">
+        <v>255</v>
+      </c>
       <c r="V67" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="W67" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z67" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>513</v>
       </c>
@@ -7111,7 +6799,7 @@
         <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="E68" t="s">
         <v>283</v>
@@ -7140,20 +6828,20 @@
       <c r="Q68" t="s">
         <v>259</v>
       </c>
+      <c r="S68" t="s">
+        <v>513</v>
+      </c>
+      <c r="T68" t="s">
+        <v>283</v>
+      </c>
       <c r="V68" t="s">
-        <v>513</v>
+        <v>291</v>
       </c>
       <c r="W68" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z68" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>265</v>
       </c>
@@ -7161,7 +6849,7 @@
         <v>259</v>
       </c>
       <c r="D69" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
       <c r="E69" t="s">
         <v>263</v>
@@ -7190,20 +6878,20 @@
       <c r="Q69" t="s">
         <v>263</v>
       </c>
+      <c r="S69" t="s">
+        <v>265</v>
+      </c>
+      <c r="T69" t="s">
+        <v>259</v>
+      </c>
       <c r="V69" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="W69" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z69" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>269</v>
       </c>
@@ -7211,7 +6899,7 @@
         <v>263</v>
       </c>
       <c r="D70" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="E70" t="s">
         <v>267</v>
@@ -7240,20 +6928,20 @@
       <c r="Q70" t="s">
         <v>267</v>
       </c>
+      <c r="S70" t="s">
+        <v>269</v>
+      </c>
+      <c r="T70" t="s">
+        <v>263</v>
+      </c>
       <c r="V70" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="W70" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z70" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>273</v>
       </c>
@@ -7261,7 +6949,7 @@
         <v>271</v>
       </c>
       <c r="D71" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="E71" t="s">
         <v>271</v>
@@ -7290,20 +6978,20 @@
       <c r="Q71" t="s">
         <v>271</v>
       </c>
+      <c r="S71" t="s">
+        <v>898</v>
+      </c>
+      <c r="T71" t="s">
+        <v>267</v>
+      </c>
       <c r="V71" t="s">
-        <v>931</v>
+        <v>303</v>
       </c>
       <c r="W71" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z71" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>277</v>
       </c>
@@ -7311,7 +6999,7 @@
         <v>275</v>
       </c>
       <c r="D72" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="E72" t="s">
         <v>259</v>
@@ -7340,20 +7028,20 @@
       <c r="Q72" t="s">
         <v>275</v>
       </c>
+      <c r="S72" t="s">
+        <v>273</v>
+      </c>
+      <c r="T72" t="s">
+        <v>271</v>
+      </c>
       <c r="V72" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="W72" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z72" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>281</v>
       </c>
@@ -7390,20 +7078,20 @@
       <c r="Q73" t="s">
         <v>279</v>
       </c>
+      <c r="S73" t="s">
+        <v>277</v>
+      </c>
+      <c r="T73" t="s">
+        <v>275</v>
+      </c>
       <c r="V73" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="W73" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z73" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -7440,20 +7128,20 @@
       <c r="Q74" t="s">
         <v>284</v>
       </c>
+      <c r="S74" t="s">
+        <v>281</v>
+      </c>
+      <c r="T74" t="s">
+        <v>279</v>
+      </c>
       <c r="V74" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="W74" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z74" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>290</v>
       </c>
@@ -7461,7 +7149,7 @@
         <v>288</v>
       </c>
       <c r="D75" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="E75" t="s">
         <v>284</v>
@@ -7490,20 +7178,20 @@
       <c r="Q75" t="s">
         <v>288</v>
       </c>
+      <c r="S75" t="s">
+        <v>286</v>
+      </c>
+      <c r="T75" t="s">
+        <v>284</v>
+      </c>
       <c r="V75" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="W75" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z75" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>294</v>
       </c>
@@ -7511,7 +7199,7 @@
         <v>292</v>
       </c>
       <c r="D76" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
       <c r="E76" t="s">
         <v>288</v>
@@ -7540,20 +7228,20 @@
       <c r="Q76" t="s">
         <v>292</v>
       </c>
+      <c r="S76" t="s">
+        <v>902</v>
+      </c>
+      <c r="T76" t="s">
+        <v>288</v>
+      </c>
       <c r="V76" t="s">
-        <v>935</v>
+        <v>323</v>
       </c>
       <c r="W76" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z76" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>298</v>
       </c>
@@ -7590,20 +7278,20 @@
       <c r="Q77" t="s">
         <v>296</v>
       </c>
+      <c r="S77" t="s">
+        <v>294</v>
+      </c>
+      <c r="T77" t="s">
+        <v>292</v>
+      </c>
       <c r="V77" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="W77" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z77" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -7611,7 +7299,7 @@
         <v>300</v>
       </c>
       <c r="D78" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
       <c r="E78" t="s">
         <v>296</v>
@@ -7640,20 +7328,20 @@
       <c r="Q78" t="s">
         <v>300</v>
       </c>
+      <c r="S78" t="s">
+        <v>298</v>
+      </c>
+      <c r="T78" t="s">
+        <v>296</v>
+      </c>
       <c r="V78" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="W78" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z78" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -7661,7 +7349,7 @@
         <v>304</v>
       </c>
       <c r="D79" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="E79" t="s">
         <v>300</v>
@@ -7690,20 +7378,20 @@
       <c r="Q79" t="s">
         <v>304</v>
       </c>
+      <c r="S79" t="s">
+        <v>905</v>
+      </c>
+      <c r="T79" t="s">
+        <v>300</v>
+      </c>
       <c r="V79" t="s">
-        <v>938</v>
+        <v>906</v>
       </c>
       <c r="W79" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>939</v>
-      </c>
-      <c r="Z79" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -7711,7 +7399,7 @@
         <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="E80" t="s">
         <v>304</v>
@@ -7740,20 +7428,20 @@
       <c r="Q80" t="s">
         <v>308</v>
       </c>
+      <c r="S80" t="s">
+        <v>306</v>
+      </c>
+      <c r="T80" t="s">
+        <v>304</v>
+      </c>
       <c r="V80" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="W80" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z80" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>314</v>
       </c>
@@ -7761,7 +7449,7 @@
         <v>312</v>
       </c>
       <c r="D81" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="E81" t="s">
         <v>308</v>
@@ -7790,20 +7478,20 @@
       <c r="Q81" t="s">
         <v>312</v>
       </c>
+      <c r="S81" t="s">
+        <v>909</v>
+      </c>
+      <c r="T81" t="s">
+        <v>308</v>
+      </c>
       <c r="V81" t="s">
-        <v>942</v>
+        <v>343</v>
       </c>
       <c r="W81" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z81" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>318</v>
       </c>
@@ -7811,7 +7499,7 @@
         <v>316</v>
       </c>
       <c r="D82" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="E82" t="s">
         <v>312</v>
@@ -7840,20 +7528,20 @@
       <c r="Q82" t="s">
         <v>316</v>
       </c>
+      <c r="S82" t="s">
+        <v>314</v>
+      </c>
+      <c r="T82" t="s">
+        <v>312</v>
+      </c>
       <c r="V82" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="W82" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z82" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>322</v>
       </c>
@@ -7861,7 +7549,7 @@
         <v>320</v>
       </c>
       <c r="D83" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="E83" t="s">
         <v>316</v>
@@ -7890,20 +7578,20 @@
       <c r="Q83" t="s">
         <v>320</v>
       </c>
+      <c r="S83" t="s">
+        <v>912</v>
+      </c>
+      <c r="T83" t="s">
+        <v>316</v>
+      </c>
       <c r="V83" t="s">
-        <v>945</v>
+        <v>351</v>
       </c>
       <c r="W83" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>326</v>
       </c>
@@ -7911,7 +7599,7 @@
         <v>324</v>
       </c>
       <c r="D84" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
       <c r="E84" t="s">
         <v>320</v>
@@ -7940,20 +7628,20 @@
       <c r="Q84" t="s">
         <v>324</v>
       </c>
+      <c r="S84" t="s">
+        <v>914</v>
+      </c>
+      <c r="T84" t="s">
+        <v>320</v>
+      </c>
       <c r="V84" t="s">
-        <v>947</v>
+        <v>355</v>
       </c>
       <c r="W84" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z84" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>330</v>
       </c>
@@ -7990,20 +7678,20 @@
       <c r="Q85" t="s">
         <v>328</v>
       </c>
+      <c r="S85" t="s">
+        <v>326</v>
+      </c>
+      <c r="T85" t="s">
+        <v>324</v>
+      </c>
       <c r="V85" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="W85" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z85" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>334</v>
       </c>
@@ -8011,7 +7699,7 @@
         <v>332</v>
       </c>
       <c r="D86" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="E86" t="s">
         <v>328</v>
@@ -8040,20 +7728,20 @@
       <c r="Q86" t="s">
         <v>332</v>
       </c>
+      <c r="S86" t="s">
+        <v>330</v>
+      </c>
+      <c r="T86" t="s">
+        <v>328</v>
+      </c>
       <c r="V86" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="W86" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z86" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>338</v>
       </c>
@@ -8061,7 +7749,7 @@
         <v>336</v>
       </c>
       <c r="D87" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="E87" t="s">
         <v>332</v>
@@ -8090,20 +7778,20 @@
       <c r="Q87" t="s">
         <v>336</v>
       </c>
+      <c r="S87" t="s">
+        <v>334</v>
+      </c>
+      <c r="T87" t="s">
+        <v>332</v>
+      </c>
       <c r="V87" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="W87" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z87" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>342</v>
       </c>
@@ -8140,20 +7828,20 @@
       <c r="Q88" t="s">
         <v>340</v>
       </c>
+      <c r="S88" t="s">
+        <v>338</v>
+      </c>
+      <c r="T88" t="s">
+        <v>336</v>
+      </c>
       <c r="V88" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="W88" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z88" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>346</v>
       </c>
@@ -8190,20 +7878,20 @@
       <c r="Q89" t="s">
         <v>344</v>
       </c>
+      <c r="S89" t="s">
+        <v>342</v>
+      </c>
+      <c r="T89" t="s">
+        <v>340</v>
+      </c>
       <c r="V89" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="W89" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z89" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>350</v>
       </c>
@@ -8240,20 +7928,20 @@
       <c r="Q90" t="s">
         <v>348</v>
       </c>
+      <c r="S90" t="s">
+        <v>346</v>
+      </c>
+      <c r="T90" t="s">
+        <v>344</v>
+      </c>
       <c r="V90" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="W90" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z90" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>354</v>
       </c>
@@ -8261,7 +7949,7 @@
         <v>352</v>
       </c>
       <c r="D91" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="E91" t="s">
         <v>348</v>
@@ -8290,20 +7978,20 @@
       <c r="Q91" t="s">
         <v>352</v>
       </c>
+      <c r="S91" t="s">
+        <v>350</v>
+      </c>
+      <c r="T91" t="s">
+        <v>348</v>
+      </c>
       <c r="V91" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="W91" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z91" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>358</v>
       </c>
@@ -8311,7 +7999,7 @@
         <v>356</v>
       </c>
       <c r="D92" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="E92" t="s">
         <v>352</v>
@@ -8340,20 +8028,20 @@
       <c r="Q92" t="s">
         <v>356</v>
       </c>
+      <c r="S92" t="s">
+        <v>354</v>
+      </c>
+      <c r="T92" t="s">
+        <v>352</v>
+      </c>
       <c r="V92" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="W92" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z92" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>360</v>
       </c>
@@ -8390,20 +8078,20 @@
       <c r="Q93" t="s">
         <v>360</v>
       </c>
+      <c r="S93" t="s">
+        <v>358</v>
+      </c>
+      <c r="T93" t="s">
+        <v>356</v>
+      </c>
       <c r="V93" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="W93" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z93" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -8411,7 +8099,7 @@
         <v>363</v>
       </c>
       <c r="D94" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="E94" t="s">
         <v>360</v>
@@ -8440,20 +8128,20 @@
       <c r="Q94" t="s">
         <v>363</v>
       </c>
+      <c r="S94" t="s">
+        <v>360</v>
+      </c>
+      <c r="T94" t="s">
+        <v>360</v>
+      </c>
       <c r="V94" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="W94" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z94" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>368</v>
       </c>
@@ -8461,7 +8149,7 @@
         <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="E95" t="s">
         <v>363</v>
@@ -8490,20 +8178,20 @@
       <c r="Q95" t="s">
         <v>366</v>
       </c>
+      <c r="S95" t="s">
+        <v>363</v>
+      </c>
+      <c r="T95" t="s">
+        <v>363</v>
+      </c>
       <c r="V95" t="s">
-        <v>363</v>
+        <v>921</v>
       </c>
       <c r="W95" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>954</v>
-      </c>
-      <c r="Z95" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -8511,7 +8199,7 @@
         <v>370</v>
       </c>
       <c r="D96" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="E96" t="s">
         <v>366</v>
@@ -8540,20 +8228,20 @@
       <c r="Q96" t="s">
         <v>370</v>
       </c>
+      <c r="S96" t="s">
+        <v>368</v>
+      </c>
+      <c r="T96" t="s">
+        <v>366</v>
+      </c>
       <c r="V96" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="W96" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z96" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -8561,7 +8249,7 @@
         <v>374</v>
       </c>
       <c r="D97" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
       <c r="E97" t="s">
         <v>370</v>
@@ -8590,20 +8278,20 @@
       <c r="Q97" t="s">
         <v>374</v>
       </c>
+      <c r="S97" t="s">
+        <v>372</v>
+      </c>
+      <c r="T97" t="s">
+        <v>370</v>
+      </c>
       <c r="V97" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="W97" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z97" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -8640,20 +8328,20 @@
       <c r="Q98" t="s">
         <v>378</v>
       </c>
+      <c r="S98" t="s">
+        <v>376</v>
+      </c>
+      <c r="T98" t="s">
+        <v>374</v>
+      </c>
       <c r="V98" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="W98" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z98" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -8661,7 +8349,7 @@
         <v>382</v>
       </c>
       <c r="D99" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
       <c r="E99" t="s">
         <v>378</v>
@@ -8690,20 +8378,20 @@
       <c r="Q99" t="s">
         <v>382</v>
       </c>
+      <c r="S99" t="s">
+        <v>380</v>
+      </c>
+      <c r="T99" t="s">
+        <v>378</v>
+      </c>
       <c r="V99" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="W99" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z99" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>388</v>
       </c>
@@ -8740,20 +8428,20 @@
       <c r="Q100" t="s">
         <v>386</v>
       </c>
+      <c r="S100" t="s">
+        <v>415</v>
+      </c>
+      <c r="T100" t="s">
+        <v>7</v>
+      </c>
       <c r="V100" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="W100" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>443</v>
-      </c>
-      <c r="Z100" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>392</v>
       </c>
@@ -8790,20 +8478,20 @@
       <c r="Q101" t="s">
         <v>390</v>
       </c>
+      <c r="S101" t="s">
+        <v>419</v>
+      </c>
+      <c r="T101" t="s">
+        <v>7</v>
+      </c>
       <c r="V101" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="W101" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z101" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -8840,20 +8528,20 @@
       <c r="Q102" t="s">
         <v>394</v>
       </c>
+      <c r="S102" t="s">
+        <v>423</v>
+      </c>
+      <c r="T102" t="s">
+        <v>7</v>
+      </c>
       <c r="V102" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="W102" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z102" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>398</v>
       </c>
@@ -8861,7 +8549,7 @@
         <v>398</v>
       </c>
       <c r="D103" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="E103" t="s">
         <v>394</v>
@@ -8890,20 +8578,20 @@
       <c r="Q103" t="s">
         <v>398</v>
       </c>
+      <c r="S103" t="s">
+        <v>427</v>
+      </c>
+      <c r="T103" t="s">
+        <v>7</v>
+      </c>
       <c r="V103" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="W103" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z103" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>401</v>
       </c>
@@ -8911,7 +8599,7 @@
         <v>401</v>
       </c>
       <c r="D104" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="E104" t="s">
         <v>398</v>
@@ -8940,20 +8628,20 @@
       <c r="Q104" t="s">
         <v>401</v>
       </c>
+      <c r="S104" t="s">
+        <v>384</v>
+      </c>
+      <c r="T104" t="s">
+        <v>382</v>
+      </c>
       <c r="V104" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="W104" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z104" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>406</v>
       </c>
@@ -8961,7 +8649,7 @@
         <v>404</v>
       </c>
       <c r="D105" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="E105" t="s">
         <v>401</v>
@@ -8990,20 +8678,20 @@
       <c r="Q105" t="s">
         <v>404</v>
       </c>
+      <c r="S105" t="s">
+        <v>388</v>
+      </c>
+      <c r="T105" t="s">
+        <v>386</v>
+      </c>
       <c r="V105" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="W105" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z105" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>410</v>
       </c>
@@ -9040,20 +8728,20 @@
       <c r="Q106" t="s">
         <v>408</v>
       </c>
+      <c r="S106" t="s">
+        <v>392</v>
+      </c>
+      <c r="T106" t="s">
+        <v>390</v>
+      </c>
       <c r="V106" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="W106" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>467</v>
-      </c>
-      <c r="Z106" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>414</v>
       </c>
@@ -9090,20 +8778,20 @@
       <c r="Q107" t="s">
         <v>412</v>
       </c>
+      <c r="S107" t="s">
+        <v>396</v>
+      </c>
+      <c r="T107" t="s">
+        <v>394</v>
+      </c>
       <c r="V107" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="W107" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z107" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>418</v>
       </c>
@@ -9140,20 +8828,20 @@
       <c r="Q108" t="s">
         <v>416</v>
       </c>
+      <c r="S108" t="s">
+        <v>398</v>
+      </c>
+      <c r="T108" t="s">
+        <v>398</v>
+      </c>
       <c r="V108" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
       <c r="W108" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z108" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>422</v>
       </c>
@@ -9190,20 +8878,20 @@
       <c r="Q109" t="s">
         <v>420</v>
       </c>
+      <c r="S109" t="s">
+        <v>401</v>
+      </c>
+      <c r="T109" t="s">
+        <v>401</v>
+      </c>
       <c r="V109" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="W109" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z109" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>426</v>
       </c>
@@ -9240,20 +8928,20 @@
       <c r="Q110" t="s">
         <v>424</v>
       </c>
+      <c r="S110" t="s">
+        <v>406</v>
+      </c>
+      <c r="T110" t="s">
+        <v>404</v>
+      </c>
       <c r="V110" t="s">
-        <v>406</v>
+        <v>483</v>
       </c>
       <c r="W110" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z110" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>430</v>
       </c>
@@ -9290,20 +8978,20 @@
       <c r="Q111" t="s">
         <v>428</v>
       </c>
+      <c r="S111" t="s">
+        <v>410</v>
+      </c>
+      <c r="T111" t="s">
+        <v>408</v>
+      </c>
       <c r="V111" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="W111" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z111" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>434</v>
       </c>
@@ -9311,7 +8999,7 @@
         <v>432</v>
       </c>
       <c r="D112" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="E112" t="s">
         <v>428</v>
@@ -9340,20 +9028,20 @@
       <c r="Q112" t="s">
         <v>432</v>
       </c>
+      <c r="S112" t="s">
+        <v>414</v>
+      </c>
+      <c r="T112" t="s">
+        <v>412</v>
+      </c>
       <c r="V112" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="W112" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z112" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>438</v>
       </c>
@@ -9361,7 +9049,7 @@
         <v>436</v>
       </c>
       <c r="D113" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
       <c r="E113" t="s">
         <v>432</v>
@@ -9390,20 +9078,20 @@
       <c r="Q113" t="s">
         <v>436</v>
       </c>
+      <c r="S113" t="s">
+        <v>418</v>
+      </c>
+      <c r="T113" t="s">
+        <v>416</v>
+      </c>
       <c r="V113" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="W113" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z113" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -9440,20 +9128,20 @@
       <c r="Q114" t="s">
         <v>440</v>
       </c>
+      <c r="S114" t="s">
+        <v>422</v>
+      </c>
+      <c r="T114" t="s">
+        <v>420</v>
+      </c>
       <c r="V114" t="s">
-        <v>422</v>
+        <v>503</v>
       </c>
       <c r="W114" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z114" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -9490,20 +9178,20 @@
       <c r="Q115" t="s">
         <v>444</v>
       </c>
+      <c r="S115" t="s">
+        <v>426</v>
+      </c>
+      <c r="T115" t="s">
+        <v>424</v>
+      </c>
       <c r="V115" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="W115" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z115" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>450</v>
       </c>
@@ -9540,20 +9228,20 @@
       <c r="Q116" t="s">
         <v>448</v>
       </c>
+      <c r="S116" t="s">
+        <v>430</v>
+      </c>
+      <c r="T116" t="s">
+        <v>428</v>
+      </c>
       <c r="V116" t="s">
-        <v>430</v>
+        <v>511</v>
       </c>
       <c r="W116" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z116" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>454</v>
       </c>
@@ -9590,20 +9278,20 @@
       <c r="Q117" t="s">
         <v>452</v>
       </c>
+      <c r="S117" t="s">
+        <v>434</v>
+      </c>
+      <c r="T117" t="s">
+        <v>432</v>
+      </c>
       <c r="V117" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="W117" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>514</v>
-      </c>
-      <c r="Z117" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>458</v>
       </c>
@@ -9640,20 +9328,20 @@
       <c r="Q118" t="s">
         <v>456</v>
       </c>
+      <c r="S118" t="s">
+        <v>438</v>
+      </c>
+      <c r="T118" t="s">
+        <v>436</v>
+      </c>
       <c r="V118" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="W118" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>518</v>
-      </c>
-      <c r="Z118" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>462</v>
       </c>
@@ -9690,20 +9378,20 @@
       <c r="Q119" t="s">
         <v>460</v>
       </c>
+      <c r="S119" t="s">
+        <v>442</v>
+      </c>
+      <c r="T119" t="s">
+        <v>440</v>
+      </c>
       <c r="V119" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="W119" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y119" t="s">
-        <v>522</v>
-      </c>
-      <c r="Z119" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>466</v>
       </c>
@@ -9740,20 +9428,20 @@
       <c r="Q120" t="s">
         <v>464</v>
       </c>
+      <c r="S120" t="s">
+        <v>446</v>
+      </c>
+      <c r="T120" t="s">
+        <v>444</v>
+      </c>
       <c r="V120" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="W120" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>529</v>
-      </c>
-      <c r="Z120" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>470</v>
       </c>
@@ -9761,7 +9449,7 @@
         <v>468</v>
       </c>
       <c r="D121" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
       <c r="E121" t="s">
         <v>464</v>
@@ -9790,20 +9478,20 @@
       <c r="Q121" t="s">
         <v>468</v>
       </c>
+      <c r="S121" t="s">
+        <v>450</v>
+      </c>
+      <c r="T121" t="s">
+        <v>448</v>
+      </c>
       <c r="V121" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="W121" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z121" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>474</v>
       </c>
@@ -9840,20 +9528,20 @@
       <c r="Q122" t="s">
         <v>472</v>
       </c>
+      <c r="S122" t="s">
+        <v>454</v>
+      </c>
+      <c r="T122" t="s">
+        <v>452</v>
+      </c>
       <c r="V122" t="s">
-        <v>454</v>
+        <v>541</v>
       </c>
       <c r="W122" t="s">
-        <v>452</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>541</v>
-      </c>
-      <c r="Z122" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>478</v>
       </c>
@@ -9890,20 +9578,20 @@
       <c r="Q123" t="s">
         <v>476</v>
       </c>
+      <c r="S123" t="s">
+        <v>458</v>
+      </c>
+      <c r="T123" t="s">
+        <v>456</v>
+      </c>
       <c r="V123" t="s">
-        <v>458</v>
+        <v>545</v>
       </c>
       <c r="W123" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z123" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>482</v>
       </c>
@@ -9911,7 +9599,7 @@
         <v>480</v>
       </c>
       <c r="D124" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
       <c r="E124" t="s">
         <v>476</v>
@@ -9940,20 +9628,20 @@
       <c r="Q124" t="s">
         <v>480</v>
       </c>
+      <c r="S124" t="s">
+        <v>462</v>
+      </c>
+      <c r="T124" t="s">
+        <v>460</v>
+      </c>
       <c r="V124" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="W124" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z124" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>486</v>
       </c>
@@ -9990,20 +9678,20 @@
       <c r="Q125" t="s">
         <v>484</v>
       </c>
+      <c r="S125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T125" t="s">
+        <v>464</v>
+      </c>
       <c r="V125" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="W125" t="s">
-        <v>464</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z125" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>490</v>
       </c>
@@ -10011,7 +9699,7 @@
         <v>488</v>
       </c>
       <c r="D126" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="E126" t="s">
         <v>484</v>
@@ -10040,20 +9728,20 @@
       <c r="Q126" t="s">
         <v>488</v>
       </c>
+      <c r="S126" t="s">
+        <v>470</v>
+      </c>
+      <c r="T126" t="s">
+        <v>468</v>
+      </c>
       <c r="V126" t="s">
-        <v>470</v>
+        <v>557</v>
       </c>
       <c r="W126" t="s">
-        <v>468</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z126" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>494</v>
       </c>
@@ -10061,7 +9749,7 @@
         <v>492</v>
       </c>
       <c r="D127" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="E127" t="s">
         <v>488</v>
@@ -10090,20 +9778,20 @@
       <c r="Q127" t="s">
         <v>492</v>
       </c>
+      <c r="S127" t="s">
+        <v>474</v>
+      </c>
+      <c r="T127" t="s">
+        <v>472</v>
+      </c>
       <c r="V127" t="s">
-        <v>474</v>
+        <v>561</v>
       </c>
       <c r="W127" t="s">
-        <v>472</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>561</v>
-      </c>
-      <c r="Z127" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>498</v>
       </c>
@@ -10140,20 +9828,20 @@
       <c r="Q128" t="s">
         <v>496</v>
       </c>
+      <c r="S128" t="s">
+        <v>478</v>
+      </c>
+      <c r="T128" t="s">
+        <v>476</v>
+      </c>
       <c r="V128" t="s">
-        <v>478</v>
+        <v>565</v>
       </c>
       <c r="W128" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y128" t="s">
-        <v>565</v>
-      </c>
-      <c r="Z128" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>502</v>
       </c>
@@ -10161,7 +9849,7 @@
         <v>500</v>
       </c>
       <c r="D129" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="E129" t="s">
         <v>496</v>
@@ -10190,20 +9878,20 @@
       <c r="Q129" t="s">
         <v>500</v>
       </c>
+      <c r="S129" t="s">
+        <v>482</v>
+      </c>
+      <c r="T129" t="s">
+        <v>480</v>
+      </c>
       <c r="V129" t="s">
-        <v>482</v>
+        <v>935</v>
       </c>
       <c r="W129" t="s">
-        <v>480</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>968</v>
-      </c>
-      <c r="Z129" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>506</v>
       </c>
@@ -10211,7 +9899,7 @@
         <v>504</v>
       </c>
       <c r="D130" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="E130" t="s">
         <v>500</v>
@@ -10240,20 +9928,20 @@
       <c r="Q130" t="s">
         <v>504</v>
       </c>
+      <c r="S130" t="s">
+        <v>486</v>
+      </c>
+      <c r="T130" t="s">
+        <v>484</v>
+      </c>
       <c r="V130" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="W130" t="s">
-        <v>484</v>
-      </c>
-      <c r="Y130" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z130" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>510</v>
       </c>
@@ -10261,7 +9949,7 @@
         <v>508</v>
       </c>
       <c r="D131" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="E131" t="s">
         <v>504</v>
@@ -10290,20 +9978,20 @@
       <c r="Q131" t="s">
         <v>508</v>
       </c>
+      <c r="S131" t="s">
+        <v>938</v>
+      </c>
+      <c r="T131" t="s">
+        <v>488</v>
+      </c>
       <c r="V131" t="s">
-        <v>971</v>
+        <v>577</v>
       </c>
       <c r="W131" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>577</v>
-      </c>
-      <c r="Z131" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>517</v>
       </c>
@@ -10311,7 +9999,7 @@
         <v>515</v>
       </c>
       <c r="D132" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="E132" t="s">
         <v>508</v>
@@ -10340,20 +10028,20 @@
       <c r="Q132" t="s">
         <v>283</v>
       </c>
+      <c r="S132" t="s">
+        <v>494</v>
+      </c>
+      <c r="T132" t="s">
+        <v>492</v>
+      </c>
       <c r="V132" t="s">
-        <v>494</v>
+        <v>940</v>
       </c>
       <c r="W132" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y132" t="s">
-        <v>973</v>
-      </c>
-      <c r="Z132" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>521</v>
       </c>
@@ -10390,20 +10078,20 @@
       <c r="Q133" t="s">
         <v>515</v>
       </c>
+      <c r="S133" t="s">
+        <v>941</v>
+      </c>
+      <c r="T133" t="s">
+        <v>496</v>
+      </c>
       <c r="V133" t="s">
-        <v>974</v>
+        <v>584</v>
       </c>
       <c r="W133" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y133" t="s">
-        <v>584</v>
-      </c>
-      <c r="Z133" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>525</v>
       </c>
@@ -10440,20 +10128,20 @@
       <c r="Q134" t="s">
         <v>519</v>
       </c>
+      <c r="S134" t="s">
+        <v>502</v>
+      </c>
+      <c r="T134" t="s">
+        <v>500</v>
+      </c>
       <c r="V134" t="s">
-        <v>502</v>
+        <v>591</v>
       </c>
       <c r="W134" t="s">
-        <v>500</v>
-      </c>
-      <c r="Y134" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z134" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -10490,20 +10178,20 @@
       <c r="Q135" t="s">
         <v>523</v>
       </c>
+      <c r="S135" t="s">
+        <v>506</v>
+      </c>
+      <c r="T135" t="s">
+        <v>504</v>
+      </c>
       <c r="V135" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="W135" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>603</v>
-      </c>
-      <c r="Z135" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>532</v>
       </c>
@@ -10540,20 +10228,20 @@
       <c r="Q136" t="s">
         <v>527</v>
       </c>
+      <c r="S136" t="s">
+        <v>510</v>
+      </c>
+      <c r="T136" t="s">
+        <v>508</v>
+      </c>
       <c r="V136" t="s">
-        <v>510</v>
+        <v>607</v>
       </c>
       <c r="W136" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y136" t="s">
-        <v>607</v>
-      </c>
-      <c r="Z136" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>536</v>
       </c>
@@ -10561,7 +10249,7 @@
         <v>530</v>
       </c>
       <c r="D137" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
       <c r="E137" t="s">
         <v>527</v>
@@ -10590,20 +10278,20 @@
       <c r="Q137" t="s">
         <v>530</v>
       </c>
+      <c r="S137" t="s">
+        <v>517</v>
+      </c>
+      <c r="T137" t="s">
+        <v>515</v>
+      </c>
       <c r="V137" t="s">
-        <v>517</v>
+        <v>611</v>
       </c>
       <c r="W137" t="s">
-        <v>515</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>611</v>
-      </c>
-      <c r="Z137" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>540</v>
       </c>
@@ -10640,20 +10328,20 @@
       <c r="Q138" t="s">
         <v>534</v>
       </c>
+      <c r="S138" t="s">
+        <v>521</v>
+      </c>
+      <c r="T138" t="s">
+        <v>519</v>
+      </c>
       <c r="V138" t="s">
-        <v>521</v>
+        <v>615</v>
       </c>
       <c r="W138" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z138" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>544</v>
       </c>
@@ -10661,7 +10349,7 @@
         <v>538</v>
       </c>
       <c r="D139" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="E139" t="s">
         <v>534</v>
@@ -10690,20 +10378,20 @@
       <c r="Q139" t="s">
         <v>538</v>
       </c>
+      <c r="S139" t="s">
+        <v>525</v>
+      </c>
+      <c r="T139" t="s">
+        <v>523</v>
+      </c>
       <c r="V139" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="W139" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>619</v>
-      </c>
-      <c r="Z139" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>548</v>
       </c>
@@ -10740,20 +10428,20 @@
       <c r="Q140" t="s">
         <v>542</v>
       </c>
+      <c r="S140" t="s">
+        <v>532</v>
+      </c>
+      <c r="T140" t="s">
+        <v>527</v>
+      </c>
       <c r="V140" t="s">
-        <v>532</v>
+        <v>623</v>
       </c>
       <c r="W140" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>623</v>
-      </c>
-      <c r="Z140" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>552</v>
       </c>
@@ -10790,20 +10478,20 @@
       <c r="Q141" t="s">
         <v>546</v>
       </c>
+      <c r="S141" t="s">
+        <v>536</v>
+      </c>
+      <c r="T141" t="s">
+        <v>530</v>
+      </c>
       <c r="V141" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="W141" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y141" t="s">
-        <v>627</v>
-      </c>
-      <c r="Z141" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>556</v>
       </c>
@@ -10811,7 +10499,7 @@
         <v>550</v>
       </c>
       <c r="D142" t="s">
-        <v>977</v>
+        <v>944</v>
       </c>
       <c r="E142" t="s">
         <v>546</v>
@@ -10840,20 +10528,20 @@
       <c r="Q142" t="s">
         <v>550</v>
       </c>
+      <c r="S142" t="s">
+        <v>540</v>
+      </c>
+      <c r="T142" t="s">
+        <v>534</v>
+      </c>
       <c r="V142" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="W142" t="s">
-        <v>534</v>
-      </c>
-      <c r="Y142" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z142" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>560</v>
       </c>
@@ -10861,7 +10549,7 @@
         <v>554</v>
       </c>
       <c r="D143" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="E143" t="s">
         <v>550</v>
@@ -10890,20 +10578,20 @@
       <c r="Q143" t="s">
         <v>554</v>
       </c>
+      <c r="S143" t="s">
+        <v>544</v>
+      </c>
+      <c r="T143" t="s">
+        <v>538</v>
+      </c>
       <c r="V143" t="s">
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="W143" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y143" t="s">
-        <v>634</v>
-      </c>
-      <c r="Z143" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>564</v>
       </c>
@@ -10911,7 +10599,7 @@
         <v>558</v>
       </c>
       <c r="D144" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="E144" t="s">
         <v>554</v>
@@ -10940,20 +10628,20 @@
       <c r="Q144" t="s">
         <v>558</v>
       </c>
+      <c r="S144" t="s">
+        <v>548</v>
+      </c>
+      <c r="T144" t="s">
+        <v>542</v>
+      </c>
       <c r="V144" t="s">
-        <v>548</v>
+        <v>638</v>
       </c>
       <c r="W144" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y144" t="s">
-        <v>638</v>
-      </c>
-      <c r="Z144" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>568</v>
       </c>
@@ -10990,20 +10678,20 @@
       <c r="Q145" t="s">
         <v>562</v>
       </c>
+      <c r="S145" t="s">
+        <v>947</v>
+      </c>
+      <c r="T145" t="s">
+        <v>546</v>
+      </c>
       <c r="V145" t="s">
-        <v>980</v>
+        <v>642</v>
       </c>
       <c r="W145" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z145" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>572</v>
       </c>
@@ -11040,20 +10728,20 @@
       <c r="Q146" t="s">
         <v>566</v>
       </c>
+      <c r="S146" t="s">
+        <v>556</v>
+      </c>
+      <c r="T146" t="s">
+        <v>550</v>
+      </c>
       <c r="V146" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="W146" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>646</v>
-      </c>
-      <c r="Z146" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>576</v>
       </c>
@@ -11090,20 +10778,20 @@
       <c r="Q147" t="s">
         <v>570</v>
       </c>
+      <c r="S147" t="s">
+        <v>948</v>
+      </c>
+      <c r="T147" t="s">
+        <v>554</v>
+      </c>
       <c r="V147" t="s">
-        <v>981</v>
+        <v>650</v>
       </c>
       <c r="W147" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y147" t="s">
-        <v>650</v>
-      </c>
-      <c r="Z147" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>580</v>
       </c>
@@ -11111,7 +10799,7 @@
         <v>574</v>
       </c>
       <c r="D148" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="E148" t="s">
         <v>570</v>
@@ -11140,20 +10828,20 @@
       <c r="Q148" t="s">
         <v>574</v>
       </c>
+      <c r="S148" t="s">
+        <v>564</v>
+      </c>
+      <c r="T148" t="s">
+        <v>558</v>
+      </c>
       <c r="V148" t="s">
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="W148" t="s">
-        <v>558</v>
-      </c>
-      <c r="Y148" t="s">
-        <v>654</v>
-      </c>
-      <c r="Z148" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>583</v>
       </c>
@@ -11190,20 +10878,20 @@
       <c r="Q149" t="s">
         <v>578</v>
       </c>
+      <c r="S149" t="s">
+        <v>568</v>
+      </c>
+      <c r="T149" t="s">
+        <v>562</v>
+      </c>
       <c r="V149" t="s">
-        <v>568</v>
+        <v>658</v>
       </c>
       <c r="W149" t="s">
-        <v>562</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>658</v>
-      </c>
-      <c r="Z149" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>587</v>
       </c>
@@ -11211,7 +10899,7 @@
         <v>581</v>
       </c>
       <c r="D150" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="E150" t="s">
         <v>578</v>
@@ -11240,20 +10928,20 @@
       <c r="Q150" t="s">
         <v>581</v>
       </c>
+      <c r="S150" t="s">
+        <v>572</v>
+      </c>
+      <c r="T150" t="s">
+        <v>566</v>
+      </c>
       <c r="V150" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="W150" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y150" t="s">
-        <v>662</v>
-      </c>
-      <c r="Z150" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>585</v>
       </c>
@@ -11290,20 +10978,20 @@
       <c r="Q151" t="s">
         <v>585</v>
       </c>
+      <c r="S151" t="s">
+        <v>576</v>
+      </c>
+      <c r="T151" t="s">
+        <v>570</v>
+      </c>
       <c r="V151" t="s">
-        <v>576</v>
+        <v>951</v>
       </c>
       <c r="W151" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y151" t="s">
-        <v>984</v>
-      </c>
-      <c r="Z151" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>594</v>
       </c>
@@ -11311,7 +10999,7 @@
         <v>589</v>
       </c>
       <c r="D152" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="E152" t="s">
         <v>589</v>
@@ -11340,20 +11028,20 @@
       <c r="Q152" t="s">
         <v>589</v>
       </c>
+      <c r="S152" t="s">
+        <v>580</v>
+      </c>
+      <c r="T152" t="s">
+        <v>574</v>
+      </c>
       <c r="V152" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
       <c r="W152" t="s">
-        <v>574</v>
-      </c>
-      <c r="Y152" t="s">
-        <v>670</v>
-      </c>
-      <c r="Z152" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>598</v>
       </c>
@@ -11361,7 +11049,7 @@
         <v>592</v>
       </c>
       <c r="D153" t="s">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="E153" t="s">
         <v>585</v>
@@ -11390,20 +11078,20 @@
       <c r="Q153" t="s">
         <v>592</v>
       </c>
+      <c r="S153" t="s">
+        <v>583</v>
+      </c>
+      <c r="T153" t="s">
+        <v>578</v>
+      </c>
       <c r="V153" t="s">
-        <v>583</v>
+        <v>674</v>
       </c>
       <c r="W153" t="s">
-        <v>578</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z153" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>602</v>
       </c>
@@ -11440,20 +11128,20 @@
       <c r="Q154" t="s">
         <v>596</v>
       </c>
+      <c r="S154" t="s">
+        <v>587</v>
+      </c>
+      <c r="T154" t="s">
+        <v>581</v>
+      </c>
       <c r="V154" t="s">
-        <v>587</v>
+        <v>678</v>
       </c>
       <c r="W154" t="s">
-        <v>581</v>
-      </c>
-      <c r="Y154" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z154" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>606</v>
       </c>
@@ -11461,7 +11149,7 @@
         <v>600</v>
       </c>
       <c r="D155" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="E155" t="s">
         <v>596</v>
@@ -11490,20 +11178,20 @@
       <c r="Q155" t="s">
         <v>600</v>
       </c>
+      <c r="S155" t="s">
+        <v>585</v>
+      </c>
+      <c r="T155" t="s">
+        <v>585</v>
+      </c>
       <c r="V155" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="W155" t="s">
-        <v>585</v>
-      </c>
-      <c r="Y155" t="s">
-        <v>682</v>
-      </c>
-      <c r="Z155" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>610</v>
       </c>
@@ -11511,7 +11199,7 @@
         <v>604</v>
       </c>
       <c r="D156" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="E156" t="s">
         <v>600</v>
@@ -11540,20 +11228,20 @@
       <c r="Q156" t="s">
         <v>604</v>
       </c>
+      <c r="S156" t="s">
+        <v>594</v>
+      </c>
+      <c r="T156" t="s">
+        <v>589</v>
+      </c>
       <c r="V156" t="s">
-        <v>594</v>
+        <v>686</v>
       </c>
       <c r="W156" t="s">
-        <v>589</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z156" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>614</v>
       </c>
@@ -11561,7 +11249,7 @@
         <v>608</v>
       </c>
       <c r="D157" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="E157" t="s">
         <v>604</v>
@@ -11590,20 +11278,20 @@
       <c r="Q157" t="s">
         <v>608</v>
       </c>
+      <c r="S157" t="s">
+        <v>598</v>
+      </c>
+      <c r="T157" t="s">
+        <v>592</v>
+      </c>
       <c r="V157" t="s">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="W157" t="s">
-        <v>592</v>
-      </c>
-      <c r="Y157" t="s">
-        <v>690</v>
-      </c>
-      <c r="Z157" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>618</v>
       </c>
@@ -11640,20 +11328,20 @@
       <c r="Q158" t="s">
         <v>612</v>
       </c>
+      <c r="S158" t="s">
+        <v>602</v>
+      </c>
+      <c r="T158" t="s">
+        <v>596</v>
+      </c>
       <c r="V158" t="s">
-        <v>602</v>
+        <v>957</v>
       </c>
       <c r="W158" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y158" t="s">
-        <v>990</v>
-      </c>
-      <c r="Z158" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>622</v>
       </c>
@@ -11690,20 +11378,20 @@
       <c r="Q159" t="s">
         <v>616</v>
       </c>
+      <c r="S159" t="s">
+        <v>606</v>
+      </c>
+      <c r="T159" t="s">
+        <v>600</v>
+      </c>
       <c r="V159" t="s">
-        <v>606</v>
+        <v>694</v>
       </c>
       <c r="W159" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y159" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z159" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>626</v>
       </c>
@@ -11711,7 +11399,7 @@
         <v>620</v>
       </c>
       <c r="D160" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="E160" t="s">
         <v>616</v>
@@ -11740,20 +11428,20 @@
       <c r="Q160" t="s">
         <v>620</v>
       </c>
+      <c r="S160" t="s">
+        <v>610</v>
+      </c>
+      <c r="T160" t="s">
+        <v>604</v>
+      </c>
       <c r="V160" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="W160" t="s">
-        <v>604</v>
-      </c>
-      <c r="Y160" t="s">
-        <v>702</v>
-      </c>
-      <c r="Z160" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>624</v>
       </c>
@@ -11761,7 +11449,7 @@
         <v>624</v>
       </c>
       <c r="D161" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
       <c r="E161" t="s">
         <v>620</v>
@@ -11790,20 +11478,20 @@
       <c r="Q161" t="s">
         <v>624</v>
       </c>
+      <c r="S161" t="s">
+        <v>614</v>
+      </c>
+      <c r="T161" t="s">
+        <v>608</v>
+      </c>
       <c r="V161" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="W161" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y161" t="s">
-        <v>705</v>
-      </c>
-      <c r="Z161" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>633</v>
       </c>
@@ -11811,7 +11499,7 @@
         <v>628</v>
       </c>
       <c r="D162" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="E162" t="s">
         <v>628</v>
@@ -11840,20 +11528,20 @@
       <c r="Q162" t="s">
         <v>628</v>
       </c>
+      <c r="S162" t="s">
+        <v>618</v>
+      </c>
+      <c r="T162" t="s">
+        <v>612</v>
+      </c>
       <c r="V162" t="s">
-        <v>618</v>
+        <v>709</v>
       </c>
       <c r="W162" t="s">
-        <v>612</v>
-      </c>
-      <c r="Y162" t="s">
-        <v>709</v>
-      </c>
-      <c r="Z162" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>637</v>
       </c>
@@ -11861,7 +11549,7 @@
         <v>631</v>
       </c>
       <c r="D163" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="E163" t="s">
         <v>624</v>
@@ -11890,20 +11578,20 @@
       <c r="Q163" t="s">
         <v>631</v>
       </c>
+      <c r="S163" t="s">
+        <v>622</v>
+      </c>
+      <c r="T163" t="s">
+        <v>616</v>
+      </c>
       <c r="V163" t="s">
-        <v>622</v>
+        <v>713</v>
       </c>
       <c r="W163" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y163" t="s">
-        <v>713</v>
-      </c>
-      <c r="Z163" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>641</v>
       </c>
@@ -11940,20 +11628,20 @@
       <c r="Q164" t="s">
         <v>635</v>
       </c>
+      <c r="S164" t="s">
+        <v>626</v>
+      </c>
+      <c r="T164" t="s">
+        <v>620</v>
+      </c>
       <c r="V164" t="s">
-        <v>626</v>
+        <v>717</v>
       </c>
       <c r="W164" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y164" t="s">
-        <v>717</v>
-      </c>
-      <c r="Z164" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>645</v>
       </c>
@@ -11961,7 +11649,7 @@
         <v>639</v>
       </c>
       <c r="D165" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="E165" t="s">
         <v>635</v>
@@ -11990,20 +11678,20 @@
       <c r="Q165" t="s">
         <v>639</v>
       </c>
+      <c r="S165" t="s">
+        <v>963</v>
+      </c>
+      <c r="T165" t="s">
+        <v>628</v>
+      </c>
       <c r="V165" t="s">
-        <v>996</v>
+        <v>721</v>
       </c>
       <c r="W165" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y165" t="s">
-        <v>721</v>
-      </c>
-      <c r="Z165" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>649</v>
       </c>
@@ -12011,7 +11699,7 @@
         <v>643</v>
       </c>
       <c r="D166" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="E166" t="s">
         <v>706</v>
@@ -12040,20 +11728,20 @@
       <c r="Q166" t="s">
         <v>643</v>
       </c>
+      <c r="S166" t="s">
+        <v>624</v>
+      </c>
+      <c r="T166" t="s">
+        <v>624</v>
+      </c>
       <c r="V166" t="s">
-        <v>624</v>
+        <v>725</v>
       </c>
       <c r="W166" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y166" t="s">
-        <v>725</v>
-      </c>
-      <c r="Z166" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>653</v>
       </c>
@@ -12061,7 +11749,7 @@
         <v>647</v>
       </c>
       <c r="D167" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="E167" t="s">
         <v>710</v>
@@ -12090,20 +11778,20 @@
       <c r="Q167" t="s">
         <v>647</v>
       </c>
+      <c r="S167" t="s">
+        <v>637</v>
+      </c>
+      <c r="T167" t="s">
+        <v>631</v>
+      </c>
       <c r="V167" t="s">
-        <v>637</v>
+        <v>729</v>
       </c>
       <c r="W167" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y167" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z167" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>657</v>
       </c>
@@ -12140,20 +11828,20 @@
       <c r="Q168" t="s">
         <v>651</v>
       </c>
+      <c r="S168" t="s">
+        <v>641</v>
+      </c>
+      <c r="T168" t="s">
+        <v>635</v>
+      </c>
       <c r="V168" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="W168" t="s">
-        <v>635</v>
-      </c>
-      <c r="Y168" t="s">
-        <v>733</v>
-      </c>
-      <c r="Z168" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>661</v>
       </c>
@@ -12190,20 +11878,20 @@
       <c r="Q169" t="s">
         <v>655</v>
       </c>
+      <c r="S169" t="s">
+        <v>645</v>
+      </c>
+      <c r="T169" t="s">
+        <v>639</v>
+      </c>
       <c r="V169" t="s">
-        <v>645</v>
+        <v>737</v>
       </c>
       <c r="W169" t="s">
-        <v>639</v>
-      </c>
-      <c r="Y169" t="s">
-        <v>737</v>
-      </c>
-      <c r="Z169" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>665</v>
       </c>
@@ -12240,20 +11928,20 @@
       <c r="Q170" t="s">
         <v>659</v>
       </c>
+      <c r="S170" t="s">
+        <v>649</v>
+      </c>
+      <c r="T170" t="s">
+        <v>643</v>
+      </c>
       <c r="V170" t="s">
-        <v>649</v>
+        <v>741</v>
       </c>
       <c r="W170" t="s">
-        <v>643</v>
-      </c>
-      <c r="Y170" t="s">
-        <v>741</v>
-      </c>
-      <c r="Z170" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>669</v>
       </c>
@@ -12290,20 +11978,20 @@
       <c r="Q171" t="s">
         <v>663</v>
       </c>
+      <c r="S171" t="s">
+        <v>653</v>
+      </c>
+      <c r="T171" t="s">
+        <v>647</v>
+      </c>
       <c r="V171" t="s">
-        <v>653</v>
+        <v>966</v>
       </c>
       <c r="W171" t="s">
-        <v>647</v>
-      </c>
-      <c r="Y171" t="s">
-        <v>999</v>
-      </c>
-      <c r="Z171" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>673</v>
       </c>
@@ -12340,20 +12028,20 @@
       <c r="Q172" t="s">
         <v>667</v>
       </c>
+      <c r="S172" t="s">
+        <v>657</v>
+      </c>
+      <c r="T172" t="s">
+        <v>651</v>
+      </c>
       <c r="V172" t="s">
-        <v>657</v>
+        <v>748</v>
       </c>
       <c r="W172" t="s">
-        <v>651</v>
-      </c>
-      <c r="Y172" t="s">
-        <v>748</v>
-      </c>
-      <c r="Z172" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>677</v>
       </c>
@@ -12361,7 +12049,7 @@
         <v>671</v>
       </c>
       <c r="D173" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="E173" t="s">
         <v>659</v>
@@ -12390,20 +12078,20 @@
       <c r="Q173" t="s">
         <v>671</v>
       </c>
+      <c r="S173" t="s">
+        <v>661</v>
+      </c>
+      <c r="T173" t="s">
+        <v>655</v>
+      </c>
       <c r="V173" t="s">
-        <v>661</v>
+        <v>752</v>
       </c>
       <c r="W173" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y173" t="s">
-        <v>752</v>
-      </c>
-      <c r="Z173" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>681</v>
       </c>
@@ -12411,7 +12099,7 @@
         <v>675</v>
       </c>
       <c r="D174" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="E174" t="s">
         <v>663</v>
@@ -12440,20 +12128,20 @@
       <c r="Q174" t="s">
         <v>675</v>
       </c>
+      <c r="S174" t="s">
+        <v>665</v>
+      </c>
+      <c r="T174" t="s">
+        <v>659</v>
+      </c>
       <c r="V174" t="s">
-        <v>665</v>
+        <v>756</v>
       </c>
       <c r="W174" t="s">
-        <v>659</v>
-      </c>
-      <c r="Y174" t="s">
-        <v>756</v>
-      </c>
-      <c r="Z174" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>685</v>
       </c>
@@ -12490,20 +12178,20 @@
       <c r="Q175" t="s">
         <v>679</v>
       </c>
+      <c r="S175" t="s">
+        <v>969</v>
+      </c>
+      <c r="T175" t="s">
+        <v>663</v>
+      </c>
       <c r="V175" t="s">
-        <v>1002</v>
+        <v>760</v>
       </c>
       <c r="W175" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y175" t="s">
-        <v>760</v>
-      </c>
-      <c r="Z175" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>689</v>
       </c>
@@ -12511,7 +12199,7 @@
         <v>683</v>
       </c>
       <c r="D176" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="E176" t="s">
         <v>671</v>
@@ -12540,20 +12228,20 @@
       <c r="Q176" t="s">
         <v>683</v>
       </c>
+      <c r="S176" t="s">
+        <v>673</v>
+      </c>
+      <c r="T176" t="s">
+        <v>667</v>
+      </c>
       <c r="V176" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="W176" t="s">
-        <v>667</v>
-      </c>
-      <c r="Y176" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z176" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>693</v>
       </c>
@@ -12561,7 +12249,7 @@
         <v>687</v>
       </c>
       <c r="D177" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="E177" t="s">
         <v>675</v>
@@ -12590,20 +12278,20 @@
       <c r="Q177" t="s">
         <v>687</v>
       </c>
+      <c r="S177" t="s">
+        <v>677</v>
+      </c>
+      <c r="T177" t="s">
+        <v>671</v>
+      </c>
       <c r="V177" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="W177" t="s">
-        <v>671</v>
-      </c>
-      <c r="Y177" t="s">
-        <v>771</v>
-      </c>
-      <c r="Z177" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>697</v>
       </c>
@@ -12640,20 +12328,20 @@
       <c r="Q178" t="s">
         <v>691</v>
       </c>
+      <c r="S178" t="s">
+        <v>681</v>
+      </c>
+      <c r="T178" t="s">
+        <v>675</v>
+      </c>
       <c r="V178" t="s">
-        <v>681</v>
+        <v>775</v>
       </c>
       <c r="W178" t="s">
-        <v>675</v>
-      </c>
-      <c r="Y178" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z178" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>701</v>
       </c>
@@ -12690,20 +12378,20 @@
       <c r="Q179" t="s">
         <v>695</v>
       </c>
+      <c r="S179" t="s">
+        <v>685</v>
+      </c>
+      <c r="T179" t="s">
+        <v>679</v>
+      </c>
       <c r="V179" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="W179" t="s">
-        <v>679</v>
-      </c>
-      <c r="Y179" t="s">
-        <v>779</v>
-      </c>
-      <c r="Z179" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>699</v>
       </c>
@@ -12711,7 +12399,7 @@
         <v>699</v>
       </c>
       <c r="D180" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="E180" t="s">
         <v>687</v>
@@ -12740,20 +12428,20 @@
       <c r="Q180" t="s">
         <v>699</v>
       </c>
+      <c r="S180" t="s">
+        <v>689</v>
+      </c>
+      <c r="T180" t="s">
+        <v>683</v>
+      </c>
       <c r="V180" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="W180" t="s">
-        <v>683</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>783</v>
-      </c>
-      <c r="Z180" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>708</v>
       </c>
@@ -12761,7 +12449,7 @@
         <v>703</v>
       </c>
       <c r="D181" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="E181" t="s">
         <v>691</v>
@@ -12790,20 +12478,20 @@
       <c r="Q181" t="s">
         <v>703</v>
       </c>
+      <c r="S181" t="s">
+        <v>693</v>
+      </c>
+      <c r="T181" t="s">
+        <v>687</v>
+      </c>
       <c r="V181" t="s">
-        <v>693</v>
+        <v>787</v>
       </c>
       <c r="W181" t="s">
-        <v>687</v>
-      </c>
-      <c r="Y181" t="s">
-        <v>787</v>
-      </c>
-      <c r="Z181" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>712</v>
       </c>
@@ -12840,20 +12528,20 @@
       <c r="Q182" t="s">
         <v>706</v>
       </c>
+      <c r="S182" t="s">
+        <v>697</v>
+      </c>
+      <c r="T182" t="s">
+        <v>691</v>
+      </c>
       <c r="V182" t="s">
-        <v>697</v>
+        <v>791</v>
       </c>
       <c r="W182" t="s">
-        <v>691</v>
-      </c>
-      <c r="Y182" t="s">
-        <v>791</v>
-      </c>
-      <c r="Z182" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>716</v>
       </c>
@@ -12861,7 +12549,7 @@
         <v>710</v>
       </c>
       <c r="D183" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="E183" t="s">
         <v>703</v>
@@ -12890,20 +12578,20 @@
       <c r="Q183" t="s">
         <v>710</v>
       </c>
+      <c r="S183" t="s">
+        <v>701</v>
+      </c>
+      <c r="T183" t="s">
+        <v>695</v>
+      </c>
       <c r="V183" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="W183" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y183" t="s">
-        <v>795</v>
-      </c>
-      <c r="Z183" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>720</v>
       </c>
@@ -12911,7 +12599,7 @@
         <v>714</v>
       </c>
       <c r="D184" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="E184" t="s">
         <v>699</v>
@@ -12940,20 +12628,20 @@
       <c r="Q184" t="s">
         <v>714</v>
       </c>
+      <c r="S184" t="s">
+        <v>699</v>
+      </c>
+      <c r="T184" t="s">
+        <v>699</v>
+      </c>
       <c r="V184" t="s">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="W184" t="s">
-        <v>699</v>
-      </c>
-      <c r="Y184" t="s">
-        <v>799</v>
-      </c>
-      <c r="Z184" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>724</v>
       </c>
@@ -12990,20 +12678,20 @@
       <c r="Q185" t="s">
         <v>718</v>
       </c>
+      <c r="S185" t="s">
+        <v>708</v>
+      </c>
+      <c r="T185" t="s">
+        <v>703</v>
+      </c>
       <c r="V185" t="s">
-        <v>708</v>
+        <v>803</v>
       </c>
       <c r="W185" t="s">
-        <v>703</v>
-      </c>
-      <c r="Y185" t="s">
-        <v>803</v>
-      </c>
-      <c r="Z185" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>728</v>
       </c>
@@ -13011,7 +12699,7 @@
         <v>722</v>
       </c>
       <c r="D186" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="E186" t="s">
         <v>718</v>
@@ -13040,20 +12728,20 @@
       <c r="Q186" t="s">
         <v>722</v>
       </c>
+      <c r="S186" t="s">
+        <v>712</v>
+      </c>
+      <c r="T186" t="s">
+        <v>706</v>
+      </c>
       <c r="V186" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
       <c r="W186" t="s">
-        <v>706</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>807</v>
-      </c>
-      <c r="Z186" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>732</v>
       </c>
@@ -13061,7 +12749,7 @@
         <v>726</v>
       </c>
       <c r="D187" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="E187" t="s">
         <v>722</v>
@@ -13090,20 +12778,20 @@
       <c r="Q187" t="s">
         <v>726</v>
       </c>
+      <c r="S187" t="s">
+        <v>716</v>
+      </c>
+      <c r="T187" t="s">
+        <v>710</v>
+      </c>
       <c r="V187" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
       <c r="W187" t="s">
-        <v>710</v>
-      </c>
-      <c r="Y187" t="s">
-        <v>811</v>
-      </c>
-      <c r="Z187" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>736</v>
       </c>
@@ -13140,20 +12828,20 @@
       <c r="Q188" t="s">
         <v>730</v>
       </c>
+      <c r="S188" t="s">
+        <v>720</v>
+      </c>
+      <c r="T188" t="s">
+        <v>714</v>
+      </c>
       <c r="V188" t="s">
-        <v>720</v>
+        <v>815</v>
       </c>
       <c r="W188" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y188" t="s">
-        <v>815</v>
-      </c>
-      <c r="Z188" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>740</v>
       </c>
@@ -13190,20 +12878,20 @@
       <c r="Q189" t="s">
         <v>734</v>
       </c>
+      <c r="S189" t="s">
+        <v>724</v>
+      </c>
+      <c r="T189" t="s">
+        <v>718</v>
+      </c>
       <c r="V189" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="W189" t="s">
-        <v>718</v>
-      </c>
-      <c r="Y189" t="s">
-        <v>819</v>
-      </c>
-      <c r="Z189" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>744</v>
       </c>
@@ -13240,20 +12928,20 @@
       <c r="Q190" t="s">
         <v>738</v>
       </c>
+      <c r="S190" t="s">
+        <v>728</v>
+      </c>
+      <c r="T190" t="s">
+        <v>722</v>
+      </c>
       <c r="V190" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="W190" t="s">
-        <v>722</v>
-      </c>
-      <c r="Y190" t="s">
-        <v>823</v>
-      </c>
-      <c r="Z190" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>742</v>
       </c>
@@ -13261,7 +12949,7 @@
         <v>742</v>
       </c>
       <c r="D191" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="E191" t="s">
         <v>738</v>
@@ -13290,20 +12978,20 @@
       <c r="Q191" t="s">
         <v>742</v>
       </c>
+      <c r="S191" t="s">
+        <v>732</v>
+      </c>
+      <c r="T191" t="s">
+        <v>726</v>
+      </c>
       <c r="V191" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="W191" t="s">
-        <v>726</v>
-      </c>
-      <c r="Y191" t="s">
-        <v>827</v>
-      </c>
-      <c r="Z191" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>751</v>
       </c>
@@ -13311,7 +12999,7 @@
         <v>746</v>
       </c>
       <c r="D192" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="E192" t="s">
         <v>742</v>
@@ -13340,20 +13028,20 @@
       <c r="Q192" t="s">
         <v>746</v>
       </c>
+      <c r="S192" t="s">
+        <v>736</v>
+      </c>
+      <c r="T192" t="s">
+        <v>730</v>
+      </c>
       <c r="V192" t="s">
-        <v>736</v>
+        <v>829</v>
       </c>
       <c r="W192" t="s">
-        <v>730</v>
-      </c>
-      <c r="Y192" t="s">
-        <v>829</v>
-      </c>
-      <c r="Z192" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>755</v>
       </c>
@@ -13361,7 +13049,7 @@
         <v>749</v>
       </c>
       <c r="D193" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="E193" t="s">
         <v>746</v>
@@ -13390,20 +13078,20 @@
       <c r="Q193" t="s">
         <v>749</v>
       </c>
+      <c r="S193" t="s">
+        <v>740</v>
+      </c>
+      <c r="T193" t="s">
+        <v>734</v>
+      </c>
       <c r="V193" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="W193" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y193" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z193" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>759</v>
       </c>
@@ -13440,20 +13128,20 @@
       <c r="Q194" t="s">
         <v>753</v>
       </c>
+      <c r="S194" t="s">
+        <v>744</v>
+      </c>
+      <c r="T194" t="s">
+        <v>738</v>
+      </c>
       <c r="V194" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
       <c r="W194" t="s">
-        <v>738</v>
-      </c>
-      <c r="Y194" t="s">
-        <v>832</v>
-      </c>
-      <c r="Z194" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>763</v>
       </c>
@@ -13490,20 +13178,20 @@
       <c r="Q195" t="s">
         <v>757</v>
       </c>
+      <c r="S195" t="s">
+        <v>742</v>
+      </c>
+      <c r="T195" t="s">
+        <v>742</v>
+      </c>
       <c r="V195" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="W195" t="s">
-        <v>742</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>833</v>
-      </c>
-      <c r="Z195" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>761</v>
       </c>
@@ -13511,7 +13199,7 @@
         <v>761</v>
       </c>
       <c r="D196" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="E196" t="s">
         <v>757</v>
@@ -13540,20 +13228,20 @@
       <c r="Q196" t="s">
         <v>765</v>
       </c>
+      <c r="S196" t="s">
+        <v>751</v>
+      </c>
+      <c r="T196" t="s">
+        <v>746</v>
+      </c>
       <c r="V196" t="s">
-        <v>751</v>
+        <v>834</v>
       </c>
       <c r="W196" t="s">
-        <v>746</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>834</v>
-      </c>
-      <c r="Z196" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>770</v>
       </c>
@@ -13590,20 +13278,20 @@
       <c r="Q197" t="s">
         <v>768</v>
       </c>
+      <c r="S197" t="s">
+        <v>755</v>
+      </c>
+      <c r="T197" t="s">
+        <v>749</v>
+      </c>
       <c r="V197" t="s">
-        <v>755</v>
+        <v>835</v>
       </c>
       <c r="W197" t="s">
-        <v>749</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>835</v>
-      </c>
-      <c r="Z197" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>774</v>
       </c>
@@ -13640,20 +13328,20 @@
       <c r="Q198" t="s">
         <v>772</v>
       </c>
+      <c r="S198" t="s">
+        <v>759</v>
+      </c>
+      <c r="T198" t="s">
+        <v>753</v>
+      </c>
       <c r="V198" t="s">
-        <v>759</v>
+        <v>836</v>
       </c>
       <c r="W198" t="s">
-        <v>753</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>836</v>
-      </c>
-      <c r="Z198" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>778</v>
       </c>
@@ -13661,7 +13349,7 @@
         <v>772</v>
       </c>
       <c r="D199" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="E199" t="s">
         <v>772</v>
@@ -13690,20 +13378,20 @@
       <c r="Q199" t="s">
         <v>776</v>
       </c>
+      <c r="S199" t="s">
+        <v>983</v>
+      </c>
+      <c r="T199" t="s">
+        <v>757</v>
+      </c>
       <c r="V199" t="s">
-        <v>1016</v>
+        <v>837</v>
       </c>
       <c r="W199" t="s">
-        <v>757</v>
-      </c>
-      <c r="Y199" t="s">
-        <v>837</v>
-      </c>
-      <c r="Z199" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>782</v>
       </c>
@@ -13711,7 +13399,7 @@
         <v>776</v>
       </c>
       <c r="D200" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="E200" t="s">
         <v>776</v>
@@ -13740,20 +13428,20 @@
       <c r="Q200" t="s">
         <v>780</v>
       </c>
+      <c r="S200" t="s">
+        <v>770</v>
+      </c>
+      <c r="T200" t="s">
+        <v>765</v>
+      </c>
       <c r="V200" t="s">
-        <v>770</v>
+        <v>838</v>
       </c>
       <c r="W200" t="s">
-        <v>765</v>
-      </c>
-      <c r="Y200" t="s">
-        <v>838</v>
-      </c>
-      <c r="Z200" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>786</v>
       </c>
@@ -13790,20 +13478,20 @@
       <c r="Q201" t="s">
         <v>784</v>
       </c>
+      <c r="S201" t="s">
+        <v>774</v>
+      </c>
+      <c r="T201" t="s">
+        <v>768</v>
+      </c>
       <c r="V201" t="s">
-        <v>774</v>
+        <v>839</v>
       </c>
       <c r="W201" t="s">
-        <v>768</v>
-      </c>
-      <c r="Y201" t="s">
-        <v>839</v>
-      </c>
-      <c r="Z201" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>790</v>
       </c>
@@ -13811,7 +13499,7 @@
         <v>784</v>
       </c>
       <c r="D202" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="E202" t="s">
         <v>784</v>
@@ -13840,20 +13528,20 @@
       <c r="Q202" t="s">
         <v>788</v>
       </c>
+      <c r="S202" t="s">
+        <v>778</v>
+      </c>
+      <c r="T202" t="s">
+        <v>772</v>
+      </c>
       <c r="V202" t="s">
-        <v>778</v>
+        <v>840</v>
       </c>
       <c r="W202" t="s">
-        <v>772</v>
-      </c>
-      <c r="Y202" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z202" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>794</v>
       </c>
@@ -13861,7 +13549,7 @@
         <v>788</v>
       </c>
       <c r="D203" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="E203" t="s">
         <v>788</v>
@@ -13890,20 +13578,20 @@
       <c r="Q203" t="s">
         <v>792</v>
       </c>
+      <c r="S203" t="s">
+        <v>782</v>
+      </c>
+      <c r="T203" t="s">
+        <v>776</v>
+      </c>
       <c r="V203" t="s">
-        <v>782</v>
+        <v>841</v>
       </c>
       <c r="W203" t="s">
-        <v>776</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>841</v>
-      </c>
-      <c r="Z203" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>798</v>
       </c>
@@ -13911,7 +13599,7 @@
         <v>792</v>
       </c>
       <c r="D204" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="E204" t="s">
         <v>792</v>
@@ -13940,20 +13628,20 @@
       <c r="Q204" t="s">
         <v>796</v>
       </c>
+      <c r="S204" t="s">
+        <v>786</v>
+      </c>
+      <c r="T204" t="s">
+        <v>780</v>
+      </c>
       <c r="V204" t="s">
-        <v>786</v>
+        <v>842</v>
       </c>
       <c r="W204" t="s">
-        <v>780</v>
-      </c>
-      <c r="Y204" t="s">
-        <v>842</v>
-      </c>
-      <c r="Z204" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>802</v>
       </c>
@@ -13961,7 +13649,7 @@
         <v>796</v>
       </c>
       <c r="D205" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="E205" t="s">
         <v>796</v>
@@ -13990,20 +13678,20 @@
       <c r="Q205" t="s">
         <v>800</v>
       </c>
+      <c r="S205" t="s">
+        <v>790</v>
+      </c>
+      <c r="T205" t="s">
+        <v>784</v>
+      </c>
       <c r="V205" t="s">
-        <v>790</v>
+        <v>843</v>
       </c>
       <c r="W205" t="s">
-        <v>784</v>
-      </c>
-      <c r="Y205" t="s">
-        <v>843</v>
-      </c>
-      <c r="Z205" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>806</v>
       </c>
@@ -14011,7 +13699,7 @@
         <v>800</v>
       </c>
       <c r="D206" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="E206" t="s">
         <v>800</v>
@@ -14040,20 +13728,20 @@
       <c r="Q206" t="s">
         <v>804</v>
       </c>
+      <c r="S206" t="s">
+        <v>794</v>
+      </c>
+      <c r="T206" t="s">
+        <v>788</v>
+      </c>
       <c r="V206" t="s">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="W206" t="s">
-        <v>788</v>
-      </c>
-      <c r="Y206" t="s">
-        <v>845</v>
-      </c>
-      <c r="Z206" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>810</v>
       </c>
@@ -14061,7 +13749,7 @@
         <v>804</v>
       </c>
       <c r="D207" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="E207" t="s">
         <v>804</v>
@@ -14090,20 +13778,20 @@
       <c r="Q207" t="s">
         <v>808</v>
       </c>
+      <c r="S207" t="s">
+        <v>798</v>
+      </c>
+      <c r="T207" t="s">
+        <v>792</v>
+      </c>
       <c r="V207" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="W207" t="s">
-        <v>792</v>
-      </c>
-      <c r="Y207" t="s">
-        <v>846</v>
-      </c>
-      <c r="Z207" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>814</v>
       </c>
@@ -14140,20 +13828,20 @@
       <c r="Q208" t="s">
         <v>812</v>
       </c>
+      <c r="S208" t="s">
+        <v>802</v>
+      </c>
+      <c r="T208" t="s">
+        <v>796</v>
+      </c>
       <c r="V208" t="s">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="W208" t="s">
-        <v>796</v>
-      </c>
-      <c r="Y208" t="s">
-        <v>847</v>
-      </c>
-      <c r="Z208" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>818</v>
       </c>
@@ -14161,7 +13849,7 @@
         <v>812</v>
       </c>
       <c r="D209" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
       <c r="E209" t="s">
         <v>812</v>
@@ -14190,14 +13878,14 @@
       <c r="Q209" t="s">
         <v>816</v>
       </c>
-      <c r="V209" t="s">
+      <c r="S209" t="s">
         <v>806</v>
       </c>
-      <c r="W209" t="s">
+      <c r="T209" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>822</v>
       </c>
@@ -14234,14 +13922,14 @@
       <c r="Q210" t="s">
         <v>820</v>
       </c>
-      <c r="V210" t="s">
+      <c r="S210" t="s">
         <v>810</v>
       </c>
-      <c r="W210" t="s">
+      <c r="T210" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>826</v>
       </c>
@@ -14249,7 +13937,7 @@
         <v>820</v>
       </c>
       <c r="D211" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="E211" t="s">
         <v>820</v>
@@ -14278,14 +13966,14 @@
       <c r="Q211" t="s">
         <v>824</v>
       </c>
-      <c r="V211" t="s">
+      <c r="S211" t="s">
         <v>814</v>
       </c>
-      <c r="W211" t="s">
+      <c r="T211" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>828</v>
       </c>
@@ -14310,14 +13998,14 @@
       <c r="N212" t="s">
         <v>812</v>
       </c>
-      <c r="V212" t="s">
+      <c r="S212" t="s">
         <v>818</v>
       </c>
-      <c r="W212" t="s">
+      <c r="T212" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J213" t="s">
         <v>830</v>
       </c>
@@ -14330,14 +14018,14 @@
       <c r="N213" t="s">
         <v>816</v>
       </c>
-      <c r="V213" t="s">
+      <c r="S213" t="s">
         <v>822</v>
       </c>
-      <c r="W213" t="s">
+      <c r="T213" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J214" t="s">
         <v>831</v>
       </c>
@@ -14350,14 +14038,14 @@
       <c r="N214" t="s">
         <v>820</v>
       </c>
-      <c r="V214" t="s">
+      <c r="S214" t="s">
         <v>826</v>
       </c>
-      <c r="W214" t="s">
+      <c r="T214" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J215" t="s">
         <v>832</v>
       </c>
@@ -14370,14 +14058,14 @@
       <c r="N215" t="s">
         <v>824</v>
       </c>
-      <c r="V215" t="s">
+      <c r="S215" t="s">
         <v>828</v>
       </c>
-      <c r="W215" t="s">
+      <c r="T215" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J216" t="s">
         <v>833</v>
       </c>
@@ -14385,7 +14073,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J217" t="s">
         <v>834</v>
       </c>
@@ -14393,7 +14081,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J218" t="s">
         <v>835</v>
       </c>
@@ -14401,7 +14089,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J219" t="s">
         <v>836</v>
       </c>
@@ -14409,7 +14097,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J220" t="s">
         <v>837</v>
       </c>
@@ -14417,7 +14105,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J221" t="s">
         <v>838</v>
       </c>
@@ -14425,7 +14113,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J222" t="s">
         <v>839</v>
       </c>
@@ -14433,7 +14121,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J223" t="s">
         <v>840</v>
       </c>
@@ -14441,7 +14129,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J224" t="s">
         <v>841</v>
       </c>
@@ -14654,7 +14342,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -14678,7 +14366,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
@@ -14982,7 +14670,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="B59" t="s">
         <v>227</v>
@@ -15142,7 +14830,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
       <c r="B79" t="s">
         <v>308</v>
@@ -15270,7 +14958,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
       <c r="B95" t="s">
         <v>370</v>
@@ -15542,7 +15230,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="B129" t="s">
         <v>508</v>
@@ -15566,7 +15254,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>973</v>
+        <v>940</v>
       </c>
       <c r="B132" t="s">
         <v>523</v>
@@ -15718,7 +15406,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="B151" t="s">
         <v>596</v>
@@ -15774,7 +15462,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="B158" t="s">
         <v>628</v>
@@ -15878,7 +15566,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="B171" t="s">
         <v>675</v>
@@ -17956,7 +17644,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -17964,7 +17652,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -17972,7 +17660,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -17980,7 +17668,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -18020,7 +17708,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -18028,7 +17716,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -18068,7 +17756,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -18076,7 +17764,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
@@ -18092,7 +17780,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -18108,7 +17796,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
@@ -18116,7 +17804,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -18132,7 +17820,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -18156,7 +17844,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="B28" t="s">
         <v>104</v>
@@ -18164,7 +17852,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
       <c r="B29" t="s">
         <v>108</v>
@@ -18172,7 +17860,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
@@ -18180,7 +17868,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -18188,7 +17876,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="B32" t="s">
         <v>120</v>
@@ -18196,7 +17884,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="B33" t="s">
         <v>127</v>
@@ -18204,7 +17892,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>906</v>
+        <v>874</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
@@ -18236,7 +17924,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="B38" t="s">
         <v>145</v>
@@ -18252,7 +17940,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="B40" t="s">
         <v>148</v>
@@ -18268,7 +17956,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
       <c r="B42" t="s">
         <v>156</v>
@@ -18276,7 +17964,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="B43" t="s">
         <v>160</v>
@@ -18284,7 +17972,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
       <c r="B44" t="s">
         <v>164</v>
@@ -18292,7 +17980,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="B45" t="s">
         <v>172</v>
@@ -18300,7 +17988,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="B46" t="s">
         <v>168</v>
@@ -18308,7 +17996,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="B47" t="s">
         <v>184</v>
@@ -18316,7 +18004,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="B48" t="s">
         <v>175</v>
@@ -18324,7 +18012,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="B49" t="s">
         <v>179</v>
@@ -18340,7 +18028,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="B51" t="s">
         <v>191</v>
@@ -18348,7 +18036,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="B52" t="s">
         <v>195</v>
@@ -18372,7 +18060,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="B55" t="s">
         <v>207</v>
@@ -18396,7 +18084,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="B58" t="s">
         <v>220</v>
@@ -18404,7 +18092,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="B59" t="s">
         <v>224</v>
@@ -18412,7 +18100,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
       <c r="B60" t="s">
         <v>227</v>
@@ -18460,7 +18148,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="B66" t="s">
         <v>251</v>
@@ -18468,7 +18156,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
       <c r="B67" t="s">
         <v>255</v>
@@ -18476,7 +18164,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="B68" t="s">
         <v>283</v>
@@ -18484,7 +18172,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
       <c r="B69" t="s">
         <v>263</v>
@@ -18492,7 +18180,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="B70" t="s">
         <v>267</v>
@@ -18500,7 +18188,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="B71" t="s">
         <v>271</v>
@@ -18508,7 +18196,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="B72" t="s">
         <v>259</v>
@@ -18532,7 +18220,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="B75" t="s">
         <v>284</v>
@@ -18540,7 +18228,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
       <c r="B76" t="s">
         <v>288</v>
@@ -18556,7 +18244,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
       <c r="B78" t="s">
         <v>296</v>
@@ -18564,7 +18252,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="B79" t="s">
         <v>300</v>
@@ -18572,7 +18260,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B80" t="s">
         <v>304</v>
@@ -18580,7 +18268,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="B81" t="s">
         <v>308</v>
@@ -18588,7 +18276,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="B82" t="s">
         <v>312</v>
@@ -18596,7 +18284,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="B83" t="s">
         <v>316</v>
@@ -18604,7 +18292,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
       <c r="B84" t="s">
         <v>320</v>
@@ -18620,7 +18308,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="B86" t="s">
         <v>328</v>
@@ -18628,7 +18316,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="B87" t="s">
         <v>332</v>
@@ -18660,7 +18348,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="B91" t="s">
         <v>348</v>
@@ -18668,7 +18356,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="B92" t="s">
         <v>352</v>
@@ -18684,7 +18372,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="B94" t="s">
         <v>360</v>
@@ -18692,7 +18380,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="B95" t="s">
         <v>363</v>
@@ -18700,7 +18388,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="B96" t="s">
         <v>366</v>
@@ -18708,7 +18396,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
       <c r="B97" t="s">
         <v>370</v>
@@ -18724,7 +18412,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
       <c r="B99" t="s">
         <v>378</v>
@@ -18756,7 +18444,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="B103" t="s">
         <v>394</v>
@@ -18764,7 +18452,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="B104" t="s">
         <v>398</v>
@@ -18772,7 +18460,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="B105" t="s">
         <v>401</v>
@@ -18828,7 +18516,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="B112" t="s">
         <v>428</v>
@@ -18836,7 +18524,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
       <c r="B113" t="s">
         <v>432</v>
@@ -18900,7 +18588,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
       <c r="B121" t="s">
         <v>464</v>
@@ -18924,7 +18612,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
       <c r="B124" t="s">
         <v>476</v>
@@ -18940,7 +18628,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="B126" t="s">
         <v>484</v>
@@ -18948,7 +18636,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="B127" t="s">
         <v>488</v>
@@ -18964,7 +18652,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="B129" t="s">
         <v>496</v>
@@ -18972,7 +18660,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="B130" t="s">
         <v>500</v>
@@ -18980,7 +18668,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="B131" t="s">
         <v>504</v>
@@ -18988,7 +18676,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="B132" t="s">
         <v>508</v>
@@ -19028,7 +18716,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
       <c r="B137" t="s">
         <v>527</v>
@@ -19044,7 +18732,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="B139" t="s">
         <v>534</v>
@@ -19068,7 +18756,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>977</v>
+        <v>944</v>
       </c>
       <c r="B142" t="s">
         <v>546</v>
@@ -19076,7 +18764,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="B143" t="s">
         <v>550</v>
@@ -19084,7 +18772,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="B144" t="s">
         <v>554</v>
@@ -19116,7 +18804,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="B148" t="s">
         <v>570</v>
@@ -19132,7 +18820,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="B150" t="s">
         <v>578</v>
@@ -19148,7 +18836,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="B152" t="s">
         <v>589</v>
@@ -19156,7 +18844,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="B153" t="s">
         <v>585</v>
@@ -19172,7 +18860,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="B155" t="s">
         <v>596</v>
@@ -19180,7 +18868,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="B156" t="s">
         <v>600</v>
@@ -19188,7 +18876,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="B157" t="s">
         <v>604</v>
@@ -19212,7 +18900,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="B160" t="s">
         <v>616</v>
@@ -19220,7 +18908,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
       <c r="B161" t="s">
         <v>620</v>
@@ -19228,7 +18916,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="B162" t="s">
         <v>628</v>
@@ -19236,7 +18924,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="B163" t="s">
         <v>624</v>
@@ -19252,7 +18940,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="B165" t="s">
         <v>635</v>
@@ -19260,7 +18948,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="B166" t="s">
         <v>706</v>
@@ -19268,7 +18956,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="B167" t="s">
         <v>710</v>
@@ -19316,7 +19004,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="B173" t="s">
         <v>659</v>
@@ -19324,7 +19012,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="B174" t="s">
         <v>663</v>
@@ -19340,7 +19028,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="B176" t="s">
         <v>671</v>
@@ -19348,7 +19036,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="B177" t="s">
         <v>675</v>
@@ -19372,7 +19060,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="B180" t="s">
         <v>687</v>
@@ -19380,7 +19068,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="B181" t="s">
         <v>691</v>
@@ -19396,7 +19084,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="B183" t="s">
         <v>703</v>
@@ -19404,7 +19092,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="B184" t="s">
         <v>699</v>
@@ -19420,7 +19108,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="B186" t="s">
         <v>718</v>
@@ -19428,7 +19116,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="B187" t="s">
         <v>722</v>
@@ -19460,7 +19148,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="B191" t="s">
         <v>738</v>
@@ -19468,7 +19156,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="B192" t="s">
         <v>742</v>
@@ -19476,7 +19164,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="B193" t="s">
         <v>746</v>
@@ -19500,7 +19188,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="B196" t="s">
         <v>757</v>
@@ -19524,7 +19212,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="B199" t="s">
         <v>772</v>
@@ -19532,7 +19220,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="B200" t="s">
         <v>776</v>
@@ -19548,7 +19236,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="B202" t="s">
         <v>784</v>
@@ -19556,7 +19244,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="B203" t="s">
         <v>788</v>
@@ -19564,7 +19252,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="B204" t="s">
         <v>792</v>
@@ -19572,7 +19260,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="B205" t="s">
         <v>796</v>
@@ -19580,7 +19268,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="B206" t="s">
         <v>800</v>
@@ -19588,7 +19276,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="B207" t="s">
         <v>804</v>
@@ -19604,7 +19292,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
       <c r="B209" t="s">
         <v>812</v>
@@ -19620,7 +19308,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="B211" t="s">
         <v>820</v>
@@ -19654,7 +19342,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -21362,7 +21050,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
